--- a/data_trace/network/norway-scaling.xlsx
+++ b/data_trace/network/norway-scaling.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xieyh/Desktop/360streaming-simulator/data_trace/network/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E982639E-AD66-0447-BBFC-F2DF19AAACC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9AACC40-A797-6246-B614-5F1E44264E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="2140" windowWidth="32000" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="norway-scaling" sheetId="1" r:id="rId1"/>
+    <sheet name="selected" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'norway-scaling'!$A$1:$D$1</definedName>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>bw_avg</t>
   </si>
@@ -47,12 +48,15 @@
     <t>seed</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
+  <si>
+    <t>seed</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -212,8 +216,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -397,6 +409,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -644,14 +662,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -713,7 +734,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1001,7 +1022,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1011,8 +1032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D311"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A280" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1029,1067 +1050,1067 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>12499.9999999999</v>
-      </c>
-      <c r="C2">
-        <v>1449.8724747179999</v>
-      </c>
-      <c r="D2">
-        <v>0.54021174443932696</v>
+      <c r="A2" s="1">
+        <v>72</v>
+      </c>
+      <c r="B2" s="1">
+        <v>12500</v>
+      </c>
+      <c r="C2" s="1">
+        <v>4936.56148451425</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.99800483028325393</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3">
-        <v>87</v>
-      </c>
-      <c r="B3">
-        <v>12499.9999999999</v>
-      </c>
-      <c r="C3">
-        <v>2855.8464152362399</v>
-      </c>
-      <c r="D3">
-        <v>0.93939811833586484</v>
+      <c r="A3" s="1">
+        <v>38</v>
+      </c>
+      <c r="B3" s="1">
+        <v>12499.9999999999</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3084.58224460874</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.99588548616921546</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>118</v>
+        <v>152</v>
       </c>
       <c r="B4" s="1">
         <v>12499.9999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>3081.5818644927199</v>
+        <v>7243.6222131527102</v>
       </c>
       <c r="D4" s="1">
-        <v>6.4192204016154997E-2</v>
+        <v>0.99006601806041761</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="2">
-        <v>38</v>
-      </c>
-      <c r="B5" s="2">
-        <v>12499.9999999999</v>
-      </c>
-      <c r="C5" s="2">
-        <v>3084.58224460874</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.99588548616921546</v>
+      <c r="A5" s="1">
+        <v>184</v>
+      </c>
+      <c r="B5" s="1">
+        <v>12500</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4255.5432523060499</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.9850563920653147</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6">
-        <v>94</v>
-      </c>
-      <c r="B6">
-        <v>12500</v>
-      </c>
-      <c r="C6">
-        <v>3293.46674650874</v>
-      </c>
-      <c r="D6">
-        <v>0.36608434244210841</v>
+      <c r="A6" s="1">
+        <v>185</v>
+      </c>
+      <c r="B6" s="1">
+        <v>12500</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5435.6652806141801</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.98036583651398201</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7">
-        <v>208</v>
-      </c>
-      <c r="B7">
-        <v>12500</v>
-      </c>
-      <c r="C7">
-        <v>3334.7626805405098</v>
-      </c>
-      <c r="D7">
-        <v>0.35713607040919548</v>
+      <c r="A7" s="1">
+        <v>267</v>
+      </c>
+      <c r="B7" s="1">
+        <v>12499.9999999999</v>
+      </c>
+      <c r="C7" s="1">
+        <v>6613.09503231906</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.97762701683528286</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8">
-        <v>127</v>
-      </c>
-      <c r="B8">
-        <v>12500</v>
-      </c>
-      <c r="C8">
-        <v>3446.4163445003501</v>
-      </c>
-      <c r="D8">
-        <v>0.9342926927194477</v>
+      <c r="A8" s="1">
+        <v>227</v>
+      </c>
+      <c r="B8" s="1">
+        <v>12499.9999999999</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5406.34667925337</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.97566409380897168</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9">
-        <v>93</v>
-      </c>
-      <c r="B9">
-        <v>12500</v>
-      </c>
-      <c r="C9">
-        <v>3492.2000971008601</v>
-      </c>
-      <c r="D9">
-        <v>0.76831297520349373</v>
+      <c r="A9" s="1">
+        <v>88</v>
+      </c>
+      <c r="B9" s="1">
+        <v>12500</v>
+      </c>
+      <c r="C9" s="1">
+        <v>4814.4130949269002</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.97083752843953752</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10">
-        <v>209</v>
-      </c>
-      <c r="B10">
-        <v>12500</v>
-      </c>
-      <c r="C10">
-        <v>3508.54895344324</v>
-      </c>
-      <c r="D10">
-        <v>0.41003160828130503</v>
+      <c r="A10" s="1">
+        <v>154</v>
+      </c>
+      <c r="B10" s="1">
+        <v>12500</v>
+      </c>
+      <c r="C10" s="1">
+        <v>8856.3327388495909</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.97035197476836399</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11">
-        <v>236</v>
-      </c>
-      <c r="B11">
-        <v>12499.9999999999</v>
-      </c>
-      <c r="C11">
-        <v>3538.191597518</v>
-      </c>
-      <c r="D11">
-        <v>0.20573753789611104</v>
+      <c r="A11" s="1">
+        <v>168</v>
+      </c>
+      <c r="B11" s="1">
+        <v>12499.9999999999</v>
+      </c>
+      <c r="C11" s="1">
+        <v>4888.6342599419804</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.96905150417010777</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12">
-        <v>235</v>
-      </c>
-      <c r="B12">
-        <v>12499.9999999999</v>
-      </c>
-      <c r="C12">
-        <v>3548.89592070455</v>
-      </c>
-      <c r="D12">
-        <v>0.93495011289017016</v>
+      <c r="A12" s="1">
+        <v>135</v>
+      </c>
+      <c r="B12" s="1">
+        <v>12500</v>
+      </c>
+      <c r="C12" s="1">
+        <v>5236.3469526590497</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.96815142105186003</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13">
-        <v>90</v>
-      </c>
-      <c r="B13">
-        <v>12500</v>
-      </c>
-      <c r="C13">
-        <v>3580.2519422590299</v>
-      </c>
-      <c r="D13">
-        <v>0.29775923135871063</v>
+      <c r="A13" s="1">
+        <v>210</v>
+      </c>
+      <c r="B13" s="1">
+        <v>12499.9999999999</v>
+      </c>
+      <c r="C13" s="1">
+        <v>4380.1527008057101</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.96759055472733735</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14">
-        <v>95</v>
-      </c>
-      <c r="B14">
-        <v>12499.9999999999</v>
-      </c>
-      <c r="C14">
-        <v>3592.3112526488198</v>
-      </c>
-      <c r="D14">
-        <v>0.78208535427098724</v>
+      <c r="A14" s="1">
+        <v>159</v>
+      </c>
+      <c r="B14" s="1">
+        <v>12500</v>
+      </c>
+      <c r="C14" s="1">
+        <v>4532.4217024399104</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.96748297873541755</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15">
-        <v>245</v>
-      </c>
-      <c r="B15">
-        <v>12500</v>
-      </c>
-      <c r="C15">
-        <v>3597.5592449023002</v>
-      </c>
-      <c r="D15">
-        <v>0.13096069852574987</v>
+      <c r="A15" s="1">
+        <v>203</v>
+      </c>
+      <c r="B15" s="1">
+        <v>12499.9999999999</v>
+      </c>
+      <c r="C15" s="1">
+        <v>5116.5576120087999</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.96690720933412133</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16">
-        <v>92</v>
-      </c>
-      <c r="B16">
-        <v>12500</v>
-      </c>
-      <c r="C16">
-        <v>3610.52809018272</v>
-      </c>
-      <c r="D16">
-        <v>0.90500468598157124</v>
+      <c r="A16" s="1">
+        <v>291</v>
+      </c>
+      <c r="B16" s="1">
+        <v>12500</v>
+      </c>
+      <c r="C16" s="1">
+        <v>6145.8604934311497</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.96669634792858472</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17">
-        <v>91</v>
-      </c>
-      <c r="B17">
-        <v>12500</v>
-      </c>
-      <c r="C17">
-        <v>3627.0051245872401</v>
-      </c>
-      <c r="D17">
-        <v>0.63126423565596712</v>
+      <c r="A17" s="1">
+        <v>161</v>
+      </c>
+      <c r="B17" s="1">
+        <v>12500</v>
+      </c>
+      <c r="C17" s="1">
+        <v>4326.2620187216999</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.96533797383464792</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1">
-        <v>100</v>
+        <v>256</v>
       </c>
       <c r="B18" s="1">
-        <v>12500</v>
+        <v>12499.9999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>3639.86101568805</v>
+        <v>8365.6199658099995</v>
       </c>
       <c r="D18" s="1">
-        <v>4.909959750937698E-2</v>
+        <v>0.96251526720226832</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="B19" s="1">
         <v>12500</v>
       </c>
       <c r="C19" s="1">
-        <v>3821.0177103565702</v>
+        <v>5708.8054177123904</v>
       </c>
       <c r="D19" s="1">
-        <v>3.9497541152067162E-2</v>
+        <v>0.96193466305396058</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20">
-        <v>128</v>
-      </c>
-      <c r="B20">
-        <v>12499.9999999999</v>
-      </c>
-      <c r="C20">
-        <v>3830.07824158319</v>
-      </c>
-      <c r="D20">
-        <v>0.86774606100459706</v>
+      <c r="A20" s="1">
+        <v>229</v>
+      </c>
+      <c r="B20" s="1">
+        <v>12500</v>
+      </c>
+      <c r="C20" s="1">
+        <v>4820.7471852320996</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.96015162554212219</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21">
-        <v>89</v>
-      </c>
-      <c r="B21">
-        <v>12499.9999999999</v>
-      </c>
-      <c r="C21">
-        <v>3853.86595514483</v>
-      </c>
-      <c r="D21">
-        <v>0.16042992995924843</v>
+      <c r="A21" s="1">
+        <v>225</v>
+      </c>
+      <c r="B21" s="1">
+        <v>12500</v>
+      </c>
+      <c r="C21" s="1">
+        <v>4864.9089019688099</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.95760444191862382</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>5</v>
+        <v>170</v>
       </c>
       <c r="B22">
         <v>12499.9999999999</v>
       </c>
       <c r="C22">
-        <v>3858.86537880068</v>
+        <v>6585.1925379194499</v>
       </c>
       <c r="D22">
-        <v>0.44074209025316124</v>
+        <v>0.95371786619723609</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>98</v>
+        <v>259</v>
       </c>
       <c r="B23">
         <v>12499.9999999999</v>
       </c>
       <c r="C23">
-        <v>3872.2878051643502</v>
+        <v>4447.4567479197003</v>
       </c>
       <c r="D23">
-        <v>0.71089669389505117</v>
+        <v>0.95330171354066973</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="B24">
         <v>12500</v>
       </c>
       <c r="C24">
-        <v>3872.8987725452398</v>
+        <v>4373.7080961668898</v>
       </c>
       <c r="D24">
-        <v>0.12264885385968716</v>
+        <v>0.93974280076076411</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>221</v>
+        <v>87</v>
       </c>
       <c r="B25">
-        <v>12500</v>
+        <v>12499.9999999999</v>
       </c>
       <c r="C25">
-        <v>3899.3559726785902</v>
+        <v>2855.8464152362399</v>
       </c>
       <c r="D25">
-        <v>0.57305477561543339</v>
+        <v>0.93939811833586484</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>303</v>
+        <v>235</v>
       </c>
       <c r="B26">
         <v>12499.9999999999</v>
       </c>
       <c r="C26">
-        <v>3918.4451445085001</v>
+        <v>3548.89592070455</v>
       </c>
       <c r="D26">
-        <v>0.70297699608595199</v>
+        <v>0.93495011289017016</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B27">
-        <v>12499.9999999999</v>
+        <v>12500</v>
       </c>
       <c r="C27">
-        <v>3940.5273297147301</v>
+        <v>3446.4163445003501</v>
       </c>
       <c r="D27">
-        <v>0.60208838161878186</v>
+        <v>0.9342926927194477</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>12500</v>
+        <v>12499.9999999999</v>
       </c>
       <c r="C28">
-        <v>3948.2055194376499</v>
+        <v>5047.5105886951596</v>
       </c>
       <c r="D28">
-        <v>0.29969632135660629</v>
+        <v>0.93279740076521611</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="B29">
         <v>12500</v>
       </c>
       <c r="C29">
-        <v>3967.6911119886599</v>
+        <v>4730.8994216852898</v>
       </c>
       <c r="D29">
-        <v>0.44220871661135541</v>
+        <v>0.93110109384988127</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>76</v>
+        <v>246</v>
       </c>
       <c r="B30">
-        <v>12500</v>
+        <v>12499.9999999999</v>
       </c>
       <c r="C30">
-        <v>3972.2831297279999</v>
+        <v>6433.4050709985404</v>
       </c>
       <c r="D30">
-        <v>0.8441133111391167</v>
+        <v>0.92869757675979159</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>297</v>
+        <v>279</v>
       </c>
       <c r="B31">
-        <v>12500</v>
+        <v>12499.9999999999</v>
       </c>
       <c r="C31">
-        <v>3976.1086558350898</v>
+        <v>8085.5973637404004</v>
       </c>
       <c r="D31">
-        <v>0.49996375680139749</v>
+        <v>0.92315150508944932</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>97</v>
+        <v>142</v>
       </c>
       <c r="B32">
-        <v>12500</v>
+        <v>12499.9999999999</v>
       </c>
       <c r="C32">
-        <v>3985.4252558866501</v>
+        <v>4874.4698912999602</v>
       </c>
       <c r="D32">
-        <v>0.58825853705933573</v>
+        <v>0.92102195918845242</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>108</v>
+        <v>275</v>
       </c>
       <c r="B33">
         <v>12500</v>
       </c>
       <c r="C33">
-        <v>4017.1218371354298</v>
+        <v>9258.6920249122195</v>
       </c>
       <c r="D33">
-        <v>7.051289864572452E-2</v>
+        <v>0.9195725371988257</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>230</v>
+        <v>301</v>
       </c>
       <c r="B34">
         <v>12499.9999999999</v>
       </c>
       <c r="C34">
-        <v>4060.6516973991302</v>
+        <v>6442.7006349405801</v>
       </c>
       <c r="D34">
-        <v>0.70622666591873962</v>
+        <v>0.91719579405472529</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>12499.9999999999</v>
       </c>
       <c r="C35">
-        <v>4103.1210979366497</v>
+        <v>4974.8479160136203</v>
       </c>
       <c r="D35">
-        <v>0.36453256914758148</v>
+        <v>0.91282372592248806</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="1">
-        <v>117</v>
-      </c>
-      <c r="B36" s="1">
-        <v>12500</v>
-      </c>
-      <c r="C36" s="1">
-        <v>4125.0909046736397</v>
-      </c>
-      <c r="D36" s="1">
-        <v>4.6279097591911955E-2</v>
+      <c r="A36">
+        <v>92</v>
+      </c>
+      <c r="B36">
+        <v>12500</v>
+      </c>
+      <c r="C36">
+        <v>3610.52809018272</v>
+      </c>
+      <c r="D36">
+        <v>0.90500468598157124</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>75</v>
+        <v>220</v>
       </c>
       <c r="B37">
-        <v>12500</v>
+        <v>12499.9999999999</v>
       </c>
       <c r="C37">
-        <v>4127.72790221383</v>
+        <v>4461.7589008071</v>
       </c>
       <c r="D37">
-        <v>0.50437765916523669</v>
+        <v>0.90297230004091011</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="B38">
-        <v>12499.9999999999</v>
+        <v>12500</v>
       </c>
       <c r="C38">
-        <v>4202.5319413053003</v>
+        <v>4966.2721258568899</v>
       </c>
       <c r="D38">
-        <v>0.66459082292580429</v>
+        <v>0.89649581046265114</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>286</v>
+        <v>213</v>
       </c>
       <c r="B39">
         <v>12499.9999999999</v>
       </c>
       <c r="C39">
-        <v>4214.10532529382</v>
+        <v>5165.6168688902799</v>
       </c>
       <c r="D39">
-        <v>0.51250796425804368</v>
+        <v>0.89249422052466654</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>86</v>
+        <v>237</v>
       </c>
       <c r="B40">
-        <v>12500</v>
+        <v>12499.9999999999</v>
       </c>
       <c r="C40">
-        <v>4235.6831324585</v>
+        <v>4717.8678178026303</v>
       </c>
       <c r="D40">
-        <v>0.44394925726728729</v>
+        <v>0.88837979626581642</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>202</v>
+        <v>18</v>
       </c>
       <c r="B41">
         <v>12499.9999999999</v>
       </c>
       <c r="C41">
-        <v>4254.0943768293</v>
+        <v>6597.1325215033603</v>
       </c>
       <c r="D41">
-        <v>0.70245405424649887</v>
+        <v>0.88781481635898674</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="2">
-        <v>184</v>
-      </c>
-      <c r="B42" s="2">
-        <v>12500</v>
-      </c>
-      <c r="C42" s="2">
-        <v>4255.5432523060499</v>
-      </c>
-      <c r="D42" s="2">
-        <v>0.9850563920653147</v>
+      <c r="A42">
+        <v>144</v>
+      </c>
+      <c r="B42">
+        <v>12500</v>
+      </c>
+      <c r="C42">
+        <v>4727.9618431469698</v>
+      </c>
+      <c r="D42">
+        <v>0.88505274318896132</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="B43">
         <v>12499.9999999999</v>
       </c>
       <c r="C43">
-        <v>4256.3160145183701</v>
+        <v>8923.9778100489602</v>
       </c>
       <c r="D43">
-        <v>0.13903574244403805</v>
+        <v>0.87197512187514614</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="B44">
-        <v>12500</v>
+        <v>12499.9999999999</v>
       </c>
       <c r="C44">
-        <v>4301.5619051476997</v>
+        <v>3830.07824158319</v>
       </c>
       <c r="D44">
-        <v>0.18995642184024464</v>
+        <v>0.86774606100459706</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>244</v>
+        <v>157</v>
       </c>
       <c r="B45">
-        <v>12500</v>
+        <v>12499.9999999999</v>
       </c>
       <c r="C45">
-        <v>4303.2715167713905</v>
+        <v>7147.1511629221905</v>
       </c>
       <c r="D45">
-        <v>0.52198406107954742</v>
+        <v>0.86246269496278971</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>136</v>
+        <v>193</v>
       </c>
       <c r="B46">
-        <v>12500</v>
+        <v>12499.9999999999</v>
       </c>
       <c r="C46">
-        <v>4306.0643222828003</v>
+        <v>7836.22712444425</v>
       </c>
       <c r="D46">
-        <v>0.11494911335725555</v>
+        <v>0.85128257931114981</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>211</v>
+        <v>26</v>
       </c>
       <c r="B47">
-        <v>12499.9999999999</v>
+        <v>12500</v>
       </c>
       <c r="C47">
-        <v>4313.1218498072303</v>
+        <v>7439.8032357182801</v>
       </c>
       <c r="D47">
-        <v>0.58881573365768913</v>
+        <v>0.84941154992279766</v>
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="2">
-        <v>161</v>
-      </c>
-      <c r="B48" s="2">
-        <v>12500</v>
-      </c>
-      <c r="C48" s="2">
-        <v>4326.2620187216999</v>
-      </c>
-      <c r="D48" s="2">
-        <v>0.96533797383464792</v>
+      <c r="A48">
+        <v>233</v>
+      </c>
+      <c r="B48">
+        <v>12499.9999999999</v>
+      </c>
+      <c r="C48">
+        <v>4357.0449388879997</v>
+      </c>
+      <c r="D48">
+        <v>0.84529928145183397</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>283</v>
+        <v>76</v>
       </c>
       <c r="B49">
         <v>12500</v>
       </c>
       <c r="C49">
-        <v>4326.4911151719098</v>
+        <v>3972.2831297279999</v>
       </c>
       <c r="D49">
-        <v>0.80813767386242352</v>
+        <v>0.8441133111391167</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>222</v>
+        <v>59</v>
       </c>
       <c r="B50">
-        <v>12499.9999999999</v>
+        <v>12500</v>
       </c>
       <c r="C50">
-        <v>4336.1264958240199</v>
+        <v>7369.1336350294396</v>
       </c>
       <c r="D50">
-        <v>0.36388380853900926</v>
+        <v>0.84251851575761327</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>223</v>
+        <v>166</v>
       </c>
       <c r="B51">
-        <v>12499.9999999999</v>
+        <v>12500</v>
       </c>
       <c r="C51">
-        <v>4347.9638038167604</v>
+        <v>4413.2569435218402</v>
       </c>
       <c r="D51">
-        <v>0.68138218517237514</v>
+        <v>0.84123958067724325</v>
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="1">
-        <v>160</v>
-      </c>
-      <c r="B52" s="1">
-        <v>12500</v>
-      </c>
-      <c r="C52" s="1">
-        <v>4349.0933785777597</v>
-      </c>
-      <c r="D52" s="1">
-        <v>4.7063266572561213E-3</v>
+      <c r="A52">
+        <v>101</v>
+      </c>
+      <c r="B52">
+        <v>12500</v>
+      </c>
+      <c r="C52">
+        <v>5003.17483170591</v>
+      </c>
+      <c r="D52">
+        <v>0.84024376928188049</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53">
-        <v>37</v>
+        <v>195</v>
       </c>
       <c r="B53">
-        <v>12500</v>
+        <v>12499.9999999999</v>
       </c>
       <c r="C53">
-        <v>4354.6747316843102</v>
+        <v>5821.9642016416301</v>
       </c>
       <c r="D53">
-        <v>0.17261918919655039</v>
+        <v>0.83782576120319707</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54">
-        <v>233</v>
+        <v>277</v>
       </c>
       <c r="B54">
         <v>12499.9999999999</v>
       </c>
       <c r="C54">
-        <v>4357.0449388879997</v>
+        <v>6456.3264911304304</v>
       </c>
       <c r="D54">
-        <v>0.84529928145183397</v>
+        <v>0.83674916353318829</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55">
-        <v>77</v>
+        <v>239</v>
       </c>
       <c r="B55">
-        <v>12500</v>
+        <v>12499.9999999999</v>
       </c>
       <c r="C55">
-        <v>4373.7080961668898</v>
+        <v>5529.3723450060297</v>
       </c>
       <c r="D55">
-        <v>0.93974280076076411</v>
+        <v>0.83234356224696293</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="B56">
-        <v>12499.9999999999</v>
+        <v>12500</v>
       </c>
       <c r="C56">
-        <v>4375.9359228411504</v>
+        <v>5048.2453173513604</v>
       </c>
       <c r="D56">
-        <v>0.36924138300832565</v>
+        <v>0.81574056839071907</v>
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="2">
-        <v>210</v>
-      </c>
-      <c r="B57" s="2">
-        <v>12499.9999999999</v>
-      </c>
-      <c r="C57" s="2">
-        <v>4380.1527008057101</v>
-      </c>
-      <c r="D57" s="2">
-        <v>0.96759055472733735</v>
+      <c r="A57">
+        <v>8</v>
+      </c>
+      <c r="B57">
+        <v>12500</v>
+      </c>
+      <c r="C57">
+        <v>5160.5373871100901</v>
+      </c>
+      <c r="D57">
+        <v>0.81005225760060251</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58">
-        <v>96</v>
+        <v>140</v>
       </c>
       <c r="B58">
-        <v>12500</v>
+        <v>12499.9999999999</v>
       </c>
       <c r="C58">
-        <v>4399.6565738387399</v>
+        <v>5835.1486618946901</v>
       </c>
       <c r="D58">
-        <v>0.64212013257084843</v>
+        <v>0.80944043366974261</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59">
-        <v>62</v>
+        <v>283</v>
       </c>
       <c r="B59">
         <v>12500</v>
       </c>
       <c r="C59">
-        <v>4412.0975805890002</v>
+        <v>4326.4911151719098</v>
       </c>
       <c r="D59">
-        <v>0.78267361267183755</v>
+        <v>0.80813767386242352</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="B60">
         <v>12499.9999999999</v>
       </c>
       <c r="C60">
-        <v>4412.25580220757</v>
+        <v>4639.7775543445296</v>
       </c>
       <c r="D60">
-        <v>0.24301843310240534</v>
+        <v>0.80433196807815244</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61">
-        <v>166</v>
+        <v>80</v>
       </c>
       <c r="B61">
         <v>12500</v>
       </c>
       <c r="C61">
-        <v>4413.2569435218402</v>
+        <v>4627.4014029630898</v>
       </c>
       <c r="D61">
-        <v>0.84123958067724325</v>
+        <v>0.80267341739556497</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62">
-        <v>259</v>
+        <v>27</v>
       </c>
       <c r="B62">
-        <v>12499.9999999999</v>
+        <v>12500</v>
       </c>
       <c r="C62">
-        <v>4447.4567479197003</v>
+        <v>6270.8215957877401</v>
       </c>
       <c r="D62">
-        <v>0.95330171354066973</v>
+        <v>0.79528053733000004</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="B63">
         <v>12499.9999999999</v>
       </c>
       <c r="C63">
-        <v>4449.2830899338496</v>
+        <v>8517.7513782192509</v>
       </c>
       <c r="D63">
-        <v>0.70037210070695022</v>
+        <v>0.7933260876504804</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="B64">
-        <v>12499.9999999999</v>
+        <v>12500</v>
       </c>
       <c r="C64">
-        <v>4452.9535072643603</v>
+        <v>4802.6346078345496</v>
       </c>
       <c r="D64">
-        <v>0.18315122541431517</v>
+        <v>0.79314726656036438</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65">
-        <v>220</v>
+        <v>53</v>
       </c>
       <c r="B65">
-        <v>12499.9999999999</v>
+        <v>12500</v>
       </c>
       <c r="C65">
-        <v>4461.7589008071</v>
+        <v>5077.7478966570598</v>
       </c>
       <c r="D65">
-        <v>0.90297230004091011</v>
+        <v>0.79260839091816315</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66">
-        <v>204</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>12499.9999999999</v>
+        <v>12500</v>
       </c>
       <c r="C66">
-        <v>4463.8005519681001</v>
+        <v>4808.0068492066503</v>
       </c>
       <c r="D66">
-        <v>0.64077397486856436</v>
+        <v>0.78744947430169721</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67">
-        <v>106</v>
+        <v>260</v>
       </c>
       <c r="B67">
         <v>12500</v>
       </c>
       <c r="C67">
-        <v>4512.6908390611998</v>
+        <v>6642.2478043269703</v>
       </c>
       <c r="D67">
-        <v>9.7472175203266231E-2</v>
+        <v>0.78402067212316684</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68">
-        <v>181</v>
+        <v>62</v>
       </c>
       <c r="B68">
-        <v>12499.9999999999</v>
+        <v>12500</v>
       </c>
       <c r="C68">
-        <v>4519.6638107184599</v>
+        <v>4412.0975805890002</v>
       </c>
       <c r="D68">
-        <v>0.71999788165963829</v>
+        <v>0.78267361267183755</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B69">
-        <v>12499.9999999999</v>
+        <v>12500</v>
       </c>
       <c r="C69">
-        <v>4526.4265948552902</v>
+        <v>6241.0030055191601</v>
       </c>
       <c r="D69">
-        <v>0.24453157224013267</v>
+        <v>0.78265600445629591</v>
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="2">
-        <v>159</v>
-      </c>
-      <c r="B70" s="2">
-        <v>12500</v>
-      </c>
-      <c r="C70" s="2">
-        <v>4532.4217024399104</v>
-      </c>
-      <c r="D70" s="2">
-        <v>0.96748297873541755</v>
+      <c r="A70">
+        <v>95</v>
+      </c>
+      <c r="B70">
+        <v>12499.9999999999</v>
+      </c>
+      <c r="C70">
+        <v>3592.3112526488198</v>
+      </c>
+      <c r="D70">
+        <v>0.78208535427098724</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="B71">
-        <v>12499.9999999999</v>
+        <v>12500</v>
       </c>
       <c r="C71">
-        <v>4557.7711435578703</v>
+        <v>4579.6281654096601</v>
       </c>
       <c r="D71">
-        <v>0.5436574098987168</v>
+        <v>0.77470610805543116</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72">
-        <v>182</v>
+        <v>93</v>
       </c>
       <c r="B72">
         <v>12500</v>
       </c>
       <c r="C72">
-        <v>4571.8362804060898</v>
+        <v>3492.2000971008601</v>
       </c>
       <c r="D72">
-        <v>0.53413458252407697</v>
+        <v>0.76831297520349373</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="B73">
         <v>12500</v>
       </c>
       <c r="C73">
-        <v>4579.6281654096601</v>
+        <v>4994.9722576731901</v>
       </c>
       <c r="D73">
-        <v>0.77470610805543116</v>
+        <v>0.75708034275255365</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="B74">
-        <v>12499.9999999999</v>
+        <v>12500</v>
       </c>
       <c r="C74">
-        <v>4590.4776916132096</v>
+        <v>5147.8044740764799</v>
       </c>
       <c r="D74">
-        <v>0.62079541702997698</v>
+        <v>0.75007187875734482</v>
       </c>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="1">
-        <v>258</v>
-      </c>
-      <c r="B75" s="1">
-        <v>12500</v>
-      </c>
-      <c r="C75" s="1">
-        <v>4595.6986480935302</v>
-      </c>
-      <c r="D75" s="1">
-        <v>6.7748204985058735E-2</v>
+      <c r="A75">
+        <v>180</v>
+      </c>
+      <c r="B75">
+        <v>12499.9999999999</v>
+      </c>
+      <c r="C75">
+        <v>6538.4626705135997</v>
+      </c>
+      <c r="D75">
+        <v>0.74358237450942866</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76">
-        <v>143</v>
+        <v>21</v>
       </c>
       <c r="B76">
-        <v>12500</v>
+        <v>12499.9999999999</v>
       </c>
       <c r="C76">
-        <v>4599.74129024782</v>
+        <v>4742.80788648404</v>
       </c>
       <c r="D76">
-        <v>0.59935350274498989</v>
+        <v>0.74273636494314932</v>
       </c>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="1">
-        <v>99</v>
-      </c>
-      <c r="B77" s="1">
-        <v>12499.9999999999</v>
-      </c>
-      <c r="C77" s="1">
-        <v>4617.45424817816</v>
-      </c>
-      <c r="D77" s="1">
-        <v>1.3432452505383052E-3</v>
+      <c r="A77">
+        <v>158</v>
+      </c>
+      <c r="B77">
+        <v>12500</v>
+      </c>
+      <c r="C77">
+        <v>6178.3581550136796</v>
+      </c>
+      <c r="D77">
+        <v>0.74163061736588998</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2108,30 +2129,30 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79">
-        <v>131</v>
+        <v>50</v>
       </c>
       <c r="B79">
-        <v>12499.9999999999</v>
+        <v>12500</v>
       </c>
       <c r="C79">
-        <v>4622.0006240730099</v>
+        <v>5570.9189147516199</v>
       </c>
       <c r="D79">
-        <v>0.45610716816987062</v>
+        <v>0.73308358728921819</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80">
-        <v>80</v>
+        <v>173</v>
       </c>
       <c r="B80">
         <v>12500</v>
       </c>
       <c r="C80">
-        <v>4627.4014029630898</v>
+        <v>5886.5177111007497</v>
       </c>
       <c r="D80">
-        <v>0.80267341739556497</v>
+        <v>0.72850255922154528</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2150,730 +2171,730 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82">
-        <v>105</v>
+        <v>181</v>
       </c>
       <c r="B82">
         <v>12499.9999999999</v>
       </c>
       <c r="C82">
-        <v>4639.7775543445296</v>
+        <v>4519.6638107184599</v>
       </c>
       <c r="D82">
-        <v>0.80433196807815244</v>
+        <v>0.71999788165963829</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83">
-        <v>51</v>
+        <v>247</v>
       </c>
       <c r="B83">
         <v>12499.9999999999</v>
       </c>
       <c r="C83">
-        <v>4685.7243652773404</v>
+        <v>7979.4136307194703</v>
       </c>
       <c r="D83">
-        <v>0.22882663377775747</v>
+        <v>0.71863643935307653</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84">
-        <v>224</v>
+        <v>285</v>
       </c>
       <c r="B84">
-        <v>12499.9999999999</v>
+        <v>12500</v>
       </c>
       <c r="C84">
-        <v>4698.9322280224696</v>
+        <v>6088.4324614610096</v>
       </c>
       <c r="D84">
-        <v>0.15210619940799763</v>
+        <v>0.71786844546685435</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85">
-        <v>237</v>
+        <v>25</v>
       </c>
       <c r="B85">
-        <v>12499.9999999999</v>
+        <v>12500</v>
       </c>
       <c r="C85">
-        <v>4717.8678178026303</v>
+        <v>7960.1158865295001</v>
       </c>
       <c r="D85">
-        <v>0.88837979626581642</v>
+        <v>0.71199824911870779</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86">
-        <v>144</v>
+        <v>98</v>
       </c>
       <c r="B86">
-        <v>12500</v>
+        <v>12499.9999999999</v>
       </c>
       <c r="C86">
-        <v>4727.9618431469698</v>
+        <v>3872.2878051643502</v>
       </c>
       <c r="D86">
-        <v>0.88505274318896132</v>
+        <v>0.71089669389505117</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87">
-        <v>133</v>
+        <v>194</v>
       </c>
       <c r="B87">
-        <v>12500</v>
+        <v>12499.9999999999</v>
       </c>
       <c r="C87">
-        <v>4730.8994216852898</v>
+        <v>7166.4022951554198</v>
       </c>
       <c r="D87">
-        <v>0.93110109384988127</v>
+        <v>0.70853791582897885</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88">
-        <v>21</v>
+        <v>230</v>
       </c>
       <c r="B88">
         <v>12499.9999999999</v>
       </c>
       <c r="C88">
-        <v>4742.80788648404</v>
+        <v>4060.6516973991302</v>
       </c>
       <c r="D88">
-        <v>0.74273636494314932</v>
+        <v>0.70622666591873962</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89">
-        <v>81</v>
+        <v>303</v>
       </c>
       <c r="B89">
         <v>12499.9999999999</v>
       </c>
       <c r="C89">
-        <v>4757.2495640586003</v>
+        <v>3918.4451445085001</v>
       </c>
       <c r="D89">
-        <v>0.26672739761653974</v>
+        <v>0.70297699608595199</v>
       </c>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="1">
-        <v>6</v>
-      </c>
-      <c r="B90" s="1">
-        <v>12499.9999999999</v>
-      </c>
-      <c r="C90" s="1">
-        <v>4758.0831804933696</v>
-      </c>
-      <c r="D90" s="1">
-        <v>3.2125477547702674E-2</v>
+      <c r="A90">
+        <v>202</v>
+      </c>
+      <c r="B90">
+        <v>12499.9999999999</v>
+      </c>
+      <c r="C90">
+        <v>4254.0943768293</v>
+      </c>
+      <c r="D90">
+        <v>0.70245405424649887</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91">
-        <v>130</v>
+        <v>175</v>
       </c>
       <c r="B91">
-        <v>12499.9999999999</v>
+        <v>12500</v>
       </c>
       <c r="C91">
-        <v>4775.9084488022199</v>
+        <v>6209.2704770617802</v>
       </c>
       <c r="D91">
-        <v>0.45316489696703288</v>
+        <v>0.70052901558167369</v>
       </c>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="1">
-        <v>167</v>
-      </c>
-      <c r="B92" s="1">
-        <v>12499.9999999999</v>
-      </c>
-      <c r="C92" s="1">
-        <v>4783.0587466226098</v>
-      </c>
-      <c r="D92" s="1">
-        <v>2.0166933617337013E-2</v>
+      <c r="A92">
+        <v>46</v>
+      </c>
+      <c r="B92">
+        <v>12499.9999999999</v>
+      </c>
+      <c r="C92">
+        <v>4449.2830899338496</v>
+      </c>
+      <c r="D92">
+        <v>0.70037210070695022</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93">
-        <v>9</v>
+        <v>228</v>
       </c>
       <c r="B93">
-        <v>12499.9999999999</v>
+        <v>12500</v>
       </c>
       <c r="C93">
-        <v>4783.6422452146999</v>
+        <v>5454.4600662572202</v>
       </c>
       <c r="D93">
-        <v>0.23344295792178249</v>
+        <v>0.69957239343457911</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94">
-        <v>219</v>
+        <v>129</v>
       </c>
       <c r="B94">
-        <v>12500</v>
+        <v>12499.9999999999</v>
       </c>
       <c r="C94">
-        <v>4792.5767386217904</v>
+        <v>5132.6434600006596</v>
       </c>
       <c r="D94">
-        <v>0.6973283438543153</v>
+        <v>0.69851933703286639</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95">
-        <v>104</v>
+        <v>264</v>
       </c>
       <c r="B95">
         <v>12500</v>
       </c>
       <c r="C95">
-        <v>4802.6346078345496</v>
+        <v>5602.8693406232296</v>
       </c>
       <c r="D95">
-        <v>0.79314726656036438</v>
+        <v>0.69845865091639836</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96">
-        <v>67</v>
+        <v>219</v>
       </c>
       <c r="B96">
         <v>12500</v>
       </c>
       <c r="C96">
-        <v>4808.0068492066503</v>
+        <v>4792.5767386217904</v>
       </c>
       <c r="D96">
-        <v>0.78744947430169721</v>
+        <v>0.6973283438543153</v>
       </c>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="2">
-        <v>88</v>
-      </c>
-      <c r="B97" s="2">
-        <v>12500</v>
-      </c>
-      <c r="C97" s="2">
-        <v>4814.4130949269002</v>
-      </c>
-      <c r="D97" s="2">
-        <v>0.97083752843953752</v>
+      <c r="A97">
+        <v>238</v>
+      </c>
+      <c r="B97">
+        <v>12499.9999999999</v>
+      </c>
+      <c r="C97">
+        <v>5517.5707732784003</v>
+      </c>
+      <c r="D97">
+        <v>0.69219276894617598</v>
       </c>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" s="2">
-        <v>229</v>
-      </c>
-      <c r="B98" s="2">
-        <v>12500</v>
-      </c>
-      <c r="C98" s="2">
-        <v>4820.7471852320996</v>
-      </c>
-      <c r="D98" s="2">
-        <v>0.96015162554212219</v>
+      <c r="A98">
+        <v>263</v>
+      </c>
+      <c r="B98">
+        <v>12499.9999999999</v>
+      </c>
+      <c r="C98">
+        <v>6588.1778797196803</v>
+      </c>
+      <c r="D98">
+        <v>0.68923366086050886</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="B99">
         <v>12500</v>
       </c>
       <c r="C99">
-        <v>4821.9616083298497</v>
+        <v>7604.6730051694303</v>
       </c>
       <c r="D99">
-        <v>0.46238339873891077</v>
+        <v>0.68772431299452064</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100">
-        <v>66</v>
+        <v>223</v>
       </c>
       <c r="B100">
-        <v>12500</v>
+        <v>12499.9999999999</v>
       </c>
       <c r="C100">
-        <v>4859.0286432076</v>
+        <v>4347.9638038167604</v>
       </c>
       <c r="D100">
-        <v>0.10734057196064528</v>
+        <v>0.68138218517237514</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101">
-        <v>241</v>
+        <v>112</v>
       </c>
       <c r="B101">
-        <v>12499.9999999999</v>
+        <v>12500</v>
       </c>
       <c r="C101">
-        <v>4859.6836463378704</v>
+        <v>5760.7343562534597</v>
       </c>
       <c r="D101">
-        <v>0.27789618986130427</v>
+        <v>0.6749478023234583</v>
       </c>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" s="2">
-        <v>225</v>
-      </c>
-      <c r="B102" s="2">
-        <v>12500</v>
-      </c>
-      <c r="C102" s="2">
-        <v>4864.9089019688099</v>
-      </c>
-      <c r="D102" s="2">
-        <v>0.95760444191862382</v>
+      <c r="A102">
+        <v>110</v>
+      </c>
+      <c r="B102">
+        <v>12499.9999999999</v>
+      </c>
+      <c r="C102">
+        <v>5647.5371384308901</v>
+      </c>
+      <c r="D102">
+        <v>0.67384397315264122</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103">
-        <v>142</v>
+        <v>7</v>
       </c>
       <c r="B103">
         <v>12499.9999999999</v>
       </c>
       <c r="C103">
-        <v>4874.4698912999602</v>
+        <v>8340.2443129559706</v>
       </c>
       <c r="D103">
-        <v>0.92102195918845242</v>
+        <v>0.66850751800706687</v>
       </c>
     </row>
     <row r="104" spans="1:4">
-      <c r="A104" s="2">
-        <v>168</v>
-      </c>
-      <c r="B104" s="2">
-        <v>12499.9999999999</v>
-      </c>
-      <c r="C104" s="2">
-        <v>4888.6342599419804</v>
-      </c>
-      <c r="D104" s="2">
-        <v>0.96905150417010777</v>
+      <c r="A104">
+        <v>120</v>
+      </c>
+      <c r="B104">
+        <v>12499.9999999999</v>
+      </c>
+      <c r="C104">
+        <v>4202.5319413053003</v>
+      </c>
+      <c r="D104">
+        <v>0.66459082292580429</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105">
-        <v>68</v>
+        <v>149</v>
       </c>
       <c r="B105">
-        <v>12499.9999999999</v>
+        <v>12500</v>
       </c>
       <c r="C105">
-        <v>4891.6428826314896</v>
+        <v>5551.4163804337404</v>
       </c>
       <c r="D105">
-        <v>0.44497077181073119</v>
+        <v>0.66189991417512317</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106">
-        <v>138</v>
+        <v>200</v>
       </c>
       <c r="B106">
         <v>12499.9999999999</v>
       </c>
       <c r="C106">
-        <v>4915.6785047651001</v>
+        <v>5861.98798981257</v>
       </c>
       <c r="D106">
-        <v>0.15999975130474009</v>
+        <v>0.65294979156912736</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="B107">
-        <v>12500</v>
+        <v>12499.9999999999</v>
       </c>
       <c r="C107">
-        <v>4918.9482636869097</v>
+        <v>7212.8464644209298</v>
       </c>
       <c r="D107">
-        <v>7.0023740592017325E-2</v>
+        <v>0.65115039324782387</v>
       </c>
     </row>
     <row r="108" spans="1:4">
-      <c r="A108" s="2">
-        <v>72</v>
-      </c>
-      <c r="B108" s="2">
-        <v>12500</v>
-      </c>
-      <c r="C108" s="2">
-        <v>4936.56148451425</v>
-      </c>
-      <c r="D108" s="2">
-        <v>0.99800483028325393</v>
+      <c r="A108">
+        <v>183</v>
+      </c>
+      <c r="B108">
+        <v>12500</v>
+      </c>
+      <c r="C108">
+        <v>4966.2838476307297</v>
+      </c>
+      <c r="D108">
+        <v>0.64927490611582972</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109">
-        <v>216</v>
+        <v>35</v>
       </c>
       <c r="B109">
         <v>12499.9999999999</v>
       </c>
       <c r="C109">
-        <v>4949.3142902946402</v>
+        <v>9329.3938233688696</v>
       </c>
       <c r="D109">
-        <v>0.40659048363777373</v>
+        <v>0.64508835274981768</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110">
-        <v>278</v>
+        <v>113</v>
       </c>
       <c r="B110">
-        <v>12499.9999999999</v>
+        <v>12500</v>
       </c>
       <c r="C110">
-        <v>4958.6537833598404</v>
+        <v>6422.16887590647</v>
       </c>
       <c r="D110">
-        <v>0.6226020098378624</v>
+        <v>0.64287660472620012</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="B111">
         <v>12500</v>
       </c>
       <c r="C111">
-        <v>4966.2721258568899</v>
+        <v>4399.6565738387399</v>
       </c>
       <c r="D111">
-        <v>0.89649581046265114</v>
+        <v>0.64212013257084843</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="B112">
-        <v>12500</v>
+        <v>12499.9999999999</v>
       </c>
       <c r="C112">
-        <v>4966.2838476307297</v>
+        <v>4463.8005519681001</v>
       </c>
       <c r="D112">
-        <v>0.64927490611582972</v>
+        <v>0.64077397486856436</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="B113">
-        <v>12499.9999999999</v>
+        <v>12500</v>
       </c>
       <c r="C113">
-        <v>4974.8479160136203</v>
+        <v>6192.2205218524596</v>
       </c>
       <c r="D113">
-        <v>0.91282372592248806</v>
+        <v>0.63994558757708631</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114">
-        <v>141</v>
+        <v>270</v>
       </c>
       <c r="B114">
         <v>12500</v>
       </c>
       <c r="C114">
-        <v>4994.9722576731901</v>
+        <v>6177.4639914612098</v>
       </c>
       <c r="D114">
-        <v>0.75708034275255365</v>
+        <v>0.63882006611305031</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115">
-        <v>145</v>
+        <v>218</v>
       </c>
       <c r="B115">
-        <v>12500</v>
+        <v>12499.9999999999</v>
       </c>
       <c r="C115">
-        <v>4995.7925369320201</v>
+        <v>5433.8643521829099</v>
       </c>
       <c r="D115">
-        <v>0.30264143714621028</v>
+        <v>0.6336001176252698</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="B116">
         <v>12500</v>
       </c>
       <c r="C116">
-        <v>5003.17483170591</v>
+        <v>6930.7447370338004</v>
       </c>
       <c r="D116">
-        <v>0.84024376928188049</v>
+        <v>0.63291928993857927</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117">
-        <v>243</v>
+        <v>30</v>
       </c>
       <c r="B117">
-        <v>12500</v>
+        <v>12499.9999999999</v>
       </c>
       <c r="C117">
-        <v>5022.7723192835101</v>
+        <v>6226.6405202693704</v>
       </c>
       <c r="D117">
-        <v>0.60127597819765366</v>
+        <v>0.63131670320333078</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118">
-        <v>262</v>
+        <v>91</v>
       </c>
       <c r="B118">
-        <v>12499.9999999999</v>
+        <v>12500</v>
       </c>
       <c r="C118">
-        <v>5041.0125117563102</v>
+        <v>3627.0051245872401</v>
       </c>
       <c r="D118">
-        <v>0.59017867326431428</v>
+        <v>0.63126423565596712</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119">
-        <v>32</v>
+        <v>278</v>
       </c>
       <c r="B119">
         <v>12499.9999999999</v>
       </c>
       <c r="C119">
-        <v>5047.5105886951596</v>
+        <v>4958.6537833598404</v>
       </c>
       <c r="D119">
-        <v>0.93279740076521611</v>
+        <v>0.6226020098378624</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120">
-        <v>212</v>
+        <v>132</v>
       </c>
       <c r="B120">
-        <v>12500</v>
+        <v>12499.9999999999</v>
       </c>
       <c r="C120">
-        <v>5048.2453173513604</v>
+        <v>4590.4776916132096</v>
       </c>
       <c r="D120">
-        <v>0.81574056839071907</v>
+        <v>0.62079541702997698</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121">
-        <v>196</v>
+        <v>268</v>
       </c>
       <c r="B121">
         <v>12500</v>
       </c>
       <c r="C121">
-        <v>5050.9268455731699</v>
+        <v>6507.89860966592</v>
       </c>
       <c r="D121">
-        <v>0.40805123466249604</v>
+        <v>0.62069506646099881</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="B122">
         <v>12500</v>
       </c>
       <c r="C122">
-        <v>5055.6180425049097</v>
+        <v>6794.6160177391403</v>
       </c>
       <c r="D122">
-        <v>0.22003477522816117</v>
+        <v>0.61818068820648253</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c r="B123">
-        <v>12500</v>
+        <v>12499.9999999999</v>
       </c>
       <c r="C123">
-        <v>5056.5820432285</v>
+        <v>5126.7152597081304</v>
       </c>
       <c r="D123">
-        <v>0.19235807587369069</v>
+        <v>0.61813667268202499</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124">
-        <v>69</v>
+        <v>165</v>
       </c>
       <c r="B124">
-        <v>12499.9999999999</v>
+        <v>12500</v>
       </c>
       <c r="C124">
-        <v>5056.9750001127804</v>
+        <v>5460.0942984823796</v>
       </c>
       <c r="D124">
-        <v>0.20263897239580864</v>
+        <v>0.61812424444541825</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125">
-        <v>231</v>
+        <v>39</v>
       </c>
       <c r="B125">
         <v>12500</v>
       </c>
       <c r="C125">
-        <v>5063.3538237648199</v>
+        <v>7242.8422540203901</v>
       </c>
       <c r="D125">
-        <v>0.25065619951024198</v>
+        <v>0.61757757868621033</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126">
-        <v>53</v>
+        <v>121</v>
       </c>
       <c r="B126">
-        <v>12500</v>
+        <v>12499.9999999999</v>
       </c>
       <c r="C126">
-        <v>5077.7478966570598</v>
+        <v>3940.5273297147301</v>
       </c>
       <c r="D126">
-        <v>0.79260839091816315</v>
+        <v>0.60208838161878186</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127">
-        <v>197</v>
+        <v>243</v>
       </c>
       <c r="B127">
         <v>12500</v>
       </c>
       <c r="C127">
-        <v>5087.1238950395</v>
+        <v>5022.7723192835101</v>
       </c>
       <c r="D127">
-        <v>0.12946659761246482</v>
+        <v>0.60127597819765366</v>
       </c>
     </row>
     <row r="128" spans="1:4">
-      <c r="A128" s="1">
-        <v>36</v>
-      </c>
-      <c r="B128" s="1">
-        <v>12500</v>
-      </c>
-      <c r="C128" s="1">
-        <v>5089.2463008018904</v>
-      </c>
-      <c r="D128" s="1">
-        <v>5.9310669234720281E-2</v>
+      <c r="A128">
+        <v>143</v>
+      </c>
+      <c r="B128">
+        <v>12500</v>
+      </c>
+      <c r="C128">
+        <v>4599.74129024782</v>
+      </c>
+      <c r="D128">
+        <v>0.59935350274498989</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129">
-        <v>164</v>
+        <v>124</v>
       </c>
       <c r="B129">
         <v>12500</v>
       </c>
       <c r="C129">
-        <v>5107.60370368851</v>
+        <v>5903.3145960846596</v>
       </c>
       <c r="D129">
-        <v>0.42921274870543036</v>
+        <v>0.59655410276769516</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B130">
         <v>12499.9999999999</v>
       </c>
       <c r="C130">
-        <v>5109.2465973302196</v>
+        <v>5395.7179674068202</v>
       </c>
       <c r="D130">
-        <v>0.54129519970433626</v>
+        <v>0.59504639589081598</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131">
-        <v>146</v>
+        <v>262</v>
       </c>
       <c r="B131">
-        <v>12500</v>
+        <v>12499.9999999999</v>
       </c>
       <c r="C131">
-        <v>5116.1832726190196</v>
+        <v>5041.0125117563102</v>
       </c>
       <c r="D131">
-        <v>0.52391172484740844</v>
+        <v>0.59017867326431428</v>
       </c>
     </row>
     <row r="132" spans="1:4">
-      <c r="A132" s="2">
-        <v>203</v>
-      </c>
-      <c r="B132" s="2">
-        <v>12499.9999999999</v>
-      </c>
-      <c r="C132" s="2">
-        <v>5116.5576120087999</v>
-      </c>
-      <c r="D132" s="2">
-        <v>0.96690720933412133</v>
+      <c r="A132">
+        <v>211</v>
+      </c>
+      <c r="B132">
+        <v>12499.9999999999</v>
+      </c>
+      <c r="C132">
+        <v>4313.1218498072303</v>
+      </c>
+      <c r="D132">
+        <v>0.58881573365768913</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="B133">
-        <v>12499.9999999999</v>
+        <v>12500</v>
       </c>
       <c r="C133">
-        <v>5126.7152597081304</v>
+        <v>3985.4252558866501</v>
       </c>
       <c r="D133">
-        <v>0.61813667268202499</v>
+        <v>0.58825853705933573</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2892,2489 +2913,2797 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135">
-        <v>129</v>
+        <v>226</v>
       </c>
       <c r="B135">
-        <v>12499.9999999999</v>
+        <v>12500</v>
       </c>
       <c r="C135">
-        <v>5132.6434600006596</v>
+        <v>5771.1620879291804</v>
       </c>
       <c r="D135">
-        <v>0.69851933703286639</v>
+        <v>0.57712011302377852</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="B136">
         <v>12500</v>
       </c>
       <c r="C136">
-        <v>5132.7081156286804</v>
+        <v>3899.3559726785902</v>
       </c>
       <c r="D136">
-        <v>0.49842629911652225</v>
+        <v>0.57305477561543339</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="B137">
-        <v>12500</v>
+        <v>12499.9999999999</v>
       </c>
       <c r="C137">
-        <v>5147.8044740764799</v>
+        <v>8083.4133595415497</v>
       </c>
       <c r="D137">
-        <v>0.75007187875734482</v>
+        <v>0.57203290772054483</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B138">
-        <v>12499.9999999999</v>
+        <v>12500</v>
       </c>
       <c r="C138">
-        <v>5157.6659546661103</v>
+        <v>8040.7097766875504</v>
       </c>
       <c r="D138">
-        <v>0.39489616302578912</v>
+        <v>0.57141841119189685</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B139">
         <v>12500</v>
       </c>
       <c r="C139">
-        <v>5160.5373871100901</v>
+        <v>7177.6321868260802</v>
       </c>
       <c r="D139">
-        <v>0.81005225760060251</v>
+        <v>0.56988835735966226</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140">
-        <v>201</v>
+        <v>17</v>
       </c>
       <c r="B140">
         <v>12499.9999999999</v>
       </c>
       <c r="C140">
-        <v>5164.5908823356403</v>
+        <v>8707.58247195068</v>
       </c>
       <c r="D140">
-        <v>0.55639048013887804</v>
+        <v>0.56725280560776759</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141">
-        <v>213</v>
+        <v>178</v>
       </c>
       <c r="B141">
         <v>12499.9999999999</v>
       </c>
       <c r="C141">
-        <v>5165.6168688902799</v>
+        <v>5247.0057918881603</v>
       </c>
       <c r="D141">
-        <v>0.89249422052466654</v>
+        <v>0.56714001270455139</v>
       </c>
     </row>
     <row r="142" spans="1:4">
-      <c r="A142" s="1">
-        <v>281</v>
-      </c>
-      <c r="B142" s="1">
-        <v>12500</v>
-      </c>
-      <c r="C142" s="1">
-        <v>5171.1639985191696</v>
-      </c>
-      <c r="D142" s="1">
-        <v>1.8039978752762531E-2</v>
+      <c r="A142">
+        <v>266</v>
+      </c>
+      <c r="B142">
+        <v>12499.9999999999</v>
+      </c>
+      <c r="C142">
+        <v>6168.2689161107</v>
+      </c>
+      <c r="D142">
+        <v>0.55825587037809909</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143">
-        <v>74</v>
+        <v>201</v>
       </c>
       <c r="B143">
         <v>12499.9999999999</v>
       </c>
       <c r="C143">
-        <v>5178.2653772567</v>
+        <v>5164.5908823356403</v>
       </c>
       <c r="D143">
-        <v>9.2631833365493299E-2</v>
+        <v>0.55639048013887804</v>
       </c>
     </row>
     <row r="144" spans="1:4">
-      <c r="A144" s="1">
-        <v>52</v>
-      </c>
-      <c r="B144" s="1">
-        <v>12500</v>
-      </c>
-      <c r="C144" s="1">
-        <v>5181.8930178974897</v>
-      </c>
-      <c r="D144" s="1">
-        <v>3.1430208007530824E-2</v>
+      <c r="A144">
+        <v>305</v>
+      </c>
+      <c r="B144">
+        <v>12499.9999999999</v>
+      </c>
+      <c r="C144">
+        <v>6428.6960222176504</v>
+      </c>
+      <c r="D144">
+        <v>0.54685936072419894</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145">
-        <v>150</v>
+        <v>23</v>
       </c>
       <c r="B145">
         <v>12499.9999999999</v>
       </c>
       <c r="C145">
-        <v>5214.5508098407799</v>
+        <v>4557.7711435578703</v>
       </c>
       <c r="D145">
-        <v>0.28530862103255128</v>
+        <v>0.5436574098987168</v>
       </c>
     </row>
     <row r="146" spans="1:4">
-      <c r="A146" s="2">
-        <v>135</v>
-      </c>
-      <c r="B146" s="2">
-        <v>12500</v>
-      </c>
-      <c r="C146" s="2">
-        <v>5236.3469526590497</v>
-      </c>
-      <c r="D146" s="2">
-        <v>0.96815142105186003</v>
+      <c r="A146">
+        <v>294</v>
+      </c>
+      <c r="B146">
+        <v>12499.9999999999</v>
+      </c>
+      <c r="C146">
+        <v>5109.2465973302196</v>
+      </c>
+      <c r="D146">
+        <v>0.54129519970433626</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147">
-        <v>151</v>
+        <v>4</v>
       </c>
       <c r="B147">
         <v>12499.9999999999</v>
       </c>
       <c r="C147">
-        <v>5245.5987525422197</v>
+        <v>1449.8724747179999</v>
       </c>
       <c r="D147">
-        <v>0.49146182405012284</v>
+        <v>0.54021174443932696</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B148">
-        <v>12499.9999999999</v>
+        <v>12500</v>
       </c>
       <c r="C148">
-        <v>5247.0057918881603</v>
+        <v>4571.8362804060898</v>
       </c>
       <c r="D148">
-        <v>0.56714001270455139</v>
+        <v>0.53413458252407697</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149">
-        <v>206</v>
+        <v>284</v>
       </c>
       <c r="B149">
-        <v>12500</v>
+        <v>12499.9999999999</v>
       </c>
       <c r="C149">
-        <v>5258.3828203021203</v>
+        <v>6025.1144091464903</v>
       </c>
       <c r="D149">
-        <v>0.12814679897195069</v>
+        <v>0.53140348658474301</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150">
-        <v>198</v>
+        <v>125</v>
       </c>
       <c r="B150">
         <v>12500</v>
       </c>
       <c r="C150">
-        <v>5265.5394622358099</v>
+        <v>5804.5874620916802</v>
       </c>
       <c r="D150">
-        <v>0.50324058384767256</v>
+        <v>0.52665737987067796</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151">
-        <v>302</v>
+        <v>54</v>
       </c>
       <c r="B151">
-        <v>12499.9999999999</v>
+        <v>12500</v>
       </c>
       <c r="C151">
-        <v>5281.4153259694203</v>
+        <v>5473.3335999308201</v>
       </c>
       <c r="D151">
-        <v>0.19673638086584155</v>
+        <v>0.52532013169423375</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152">
-        <v>33</v>
+        <v>146</v>
       </c>
       <c r="B152">
         <v>12500</v>
       </c>
       <c r="C152">
-        <v>5286.7974886178699</v>
+        <v>5116.1832726190196</v>
       </c>
       <c r="D152">
-        <v>0.15955762015246011</v>
+        <v>0.52391172484740844</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153">
-        <v>116</v>
+        <v>244</v>
       </c>
       <c r="B153">
         <v>12500</v>
       </c>
       <c r="C153">
-        <v>5299.9987645808196</v>
+        <v>4303.2715167713905</v>
       </c>
       <c r="D153">
-        <v>8.0149669616742303E-2</v>
+        <v>0.52198406107954742</v>
       </c>
     </row>
     <row r="154" spans="1:4">
-      <c r="A154" s="1">
-        <v>123</v>
-      </c>
-      <c r="B154" s="1">
-        <v>12500</v>
-      </c>
-      <c r="C154" s="1">
-        <v>5320.7125379521804</v>
-      </c>
-      <c r="D154" s="1">
-        <v>5.6615686202293292E-2</v>
+      <c r="A154">
+        <v>47</v>
+      </c>
+      <c r="B154">
+        <v>12500</v>
+      </c>
+      <c r="C154">
+        <v>5643.82742872781</v>
+      </c>
+      <c r="D154">
+        <v>0.52023560542614333</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="B155">
         <v>12500</v>
       </c>
       <c r="C155">
-        <v>5321.3509885301901</v>
+        <v>5665.45354611127</v>
       </c>
       <c r="D155">
-        <v>0.49952880672181577</v>
+        <v>0.51660500710025392</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156">
-        <v>115</v>
+        <v>286</v>
       </c>
       <c r="B156">
         <v>12499.9999999999</v>
       </c>
       <c r="C156">
-        <v>5360.4810967639996</v>
+        <v>4214.10532529382</v>
       </c>
       <c r="D156">
-        <v>0.19818370777294103</v>
+        <v>0.51250796425804368</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157">
-        <v>271</v>
+        <v>156</v>
       </c>
       <c r="B157">
-        <v>12500</v>
+        <v>12499.9999999999</v>
       </c>
       <c r="C157">
-        <v>5366.03511131905</v>
+        <v>8502.1202429652003</v>
       </c>
       <c r="D157">
-        <v>0.11357598434684957</v>
+        <v>0.50760486320116094</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="B158">
         <v>12500</v>
       </c>
       <c r="C158">
-        <v>5371.0151289863497</v>
+        <v>4127.72790221383</v>
       </c>
       <c r="D158">
-        <v>0.37234991448987076</v>
+        <v>0.50437765916523669</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159">
-        <v>293</v>
+        <v>198</v>
       </c>
       <c r="B159">
-        <v>12499.9999999999</v>
+        <v>12500</v>
       </c>
       <c r="C159">
-        <v>5395.7179674068202</v>
+        <v>5265.5394622358099</v>
       </c>
       <c r="D159">
-        <v>0.59504639589081598</v>
+        <v>0.50324058384767256</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160">
-        <v>276</v>
+        <v>11</v>
       </c>
       <c r="B160">
-        <v>12500</v>
+        <v>12499.9999999999</v>
       </c>
       <c r="C160">
-        <v>5405.2283462771702</v>
+        <v>7974.3095925804</v>
       </c>
       <c r="D160">
-        <v>9.1920752422166463E-2</v>
+        <v>0.50321345139208096</v>
       </c>
     </row>
     <row r="161" spans="1:4">
-      <c r="A161" s="2">
-        <v>227</v>
-      </c>
-      <c r="B161" s="2">
-        <v>12499.9999999999</v>
-      </c>
-      <c r="C161" s="2">
-        <v>5406.34667925337</v>
-      </c>
-      <c r="D161" s="2">
-        <v>0.97566409380897168</v>
+      <c r="A161">
+        <v>147</v>
+      </c>
+      <c r="B161">
+        <v>12499.9999999999</v>
+      </c>
+      <c r="C161">
+        <v>5618.3501866351098</v>
+      </c>
+      <c r="D161">
+        <v>0.50222941653016806</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162">
-        <v>205</v>
+        <v>297</v>
       </c>
       <c r="B162">
         <v>12500</v>
       </c>
       <c r="C162">
-        <v>5420.9775100715497</v>
+        <v>3976.1086558350898</v>
       </c>
       <c r="D162">
-        <v>0.49661691058016089</v>
+        <v>0.49996375680139749</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163">
-        <v>296</v>
+        <v>169</v>
       </c>
       <c r="B163">
-        <v>12499.9999999999</v>
+        <v>12500</v>
       </c>
       <c r="C163">
-        <v>5431.3614416073497</v>
+        <v>5321.3509885301901</v>
       </c>
       <c r="D163">
-        <v>0.15311256149257457</v>
+        <v>0.49952880672181577</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="B164">
-        <v>12499.9999999999</v>
+        <v>12500</v>
       </c>
       <c r="C164">
-        <v>5433.8643521829099</v>
+        <v>5132.7081156286804</v>
       </c>
       <c r="D164">
-        <v>0.6336001176252698</v>
+        <v>0.49842629911652225</v>
       </c>
     </row>
     <row r="165" spans="1:4">
-      <c r="A165" s="2">
-        <v>185</v>
-      </c>
-      <c r="B165" s="2">
-        <v>12500</v>
-      </c>
-      <c r="C165" s="2">
-        <v>5435.6652806141801</v>
-      </c>
-      <c r="D165" s="2">
-        <v>0.98036583651398201</v>
+      <c r="A165">
+        <v>248</v>
+      </c>
+      <c r="B165">
+        <v>12499.9999999999</v>
+      </c>
+      <c r="C165">
+        <v>8774.5111525592092</v>
+      </c>
+      <c r="D165">
+        <v>0.49721808450174787</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="B166">
         <v>12500</v>
       </c>
       <c r="C166">
-        <v>5454.4600662572202</v>
+        <v>5420.9775100715497</v>
       </c>
       <c r="D166">
-        <v>0.69957239343457911</v>
+        <v>0.49661691058016089</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167">
-        <v>165</v>
+        <v>308</v>
       </c>
       <c r="B167">
         <v>12500</v>
       </c>
       <c r="C167">
-        <v>5460.0942984823796</v>
+        <v>10184.653880612201</v>
       </c>
       <c r="D167">
-        <v>0.61812424444541825</v>
+        <v>0.49510682339693657</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B168">
-        <v>12500</v>
+        <v>12499.9999999999</v>
       </c>
       <c r="C168">
-        <v>5473.3335999308201</v>
+        <v>5774.4991636390196</v>
       </c>
       <c r="D168">
-        <v>0.52532013169423375</v>
+        <v>0.49338915791033533</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169">
-        <v>207</v>
+        <v>273</v>
       </c>
       <c r="B169">
-        <v>12500</v>
+        <v>12499.9999999999</v>
       </c>
       <c r="C169">
-        <v>5492.6457443444397</v>
+        <v>6350.9214496319801</v>
       </c>
       <c r="D169">
-        <v>0.42682434645239697</v>
+        <v>0.49277281244331117</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170">
-        <v>199</v>
+        <v>151</v>
       </c>
       <c r="B170">
-        <v>12500</v>
+        <v>12499.9999999999</v>
       </c>
       <c r="C170">
-        <v>5500.3250638912496</v>
+        <v>5245.5987525422197</v>
       </c>
       <c r="D170">
-        <v>0.47149234071678614</v>
+        <v>0.49146182405012284</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171">
-        <v>238</v>
+        <v>60</v>
       </c>
       <c r="B171">
         <v>12499.9999999999</v>
       </c>
       <c r="C171">
-        <v>5517.5707732784003</v>
+        <v>6591.0977879031198</v>
       </c>
       <c r="D171">
-        <v>0.69219276894617598</v>
+        <v>0.47767469973064614</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172">
-        <v>239</v>
+        <v>287</v>
       </c>
       <c r="B172">
-        <v>12499.9999999999</v>
+        <v>12500</v>
       </c>
       <c r="C172">
-        <v>5529.3723450060297</v>
+        <v>6064.6712019227098</v>
       </c>
       <c r="D172">
-        <v>0.83234356224696293</v>
+        <v>0.47740177372079573</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173">
-        <v>114</v>
+        <v>172</v>
       </c>
       <c r="B173">
         <v>12500</v>
       </c>
       <c r="C173">
-        <v>5532.4381523688298</v>
+        <v>6222.0363032240202</v>
       </c>
       <c r="D173">
-        <v>0.46656216868526079</v>
+        <v>0.47659753241310721</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="B174">
         <v>12500</v>
       </c>
       <c r="C174">
-        <v>5532.7603649107396</v>
+        <v>5500.3250638912496</v>
       </c>
       <c r="D174">
-        <v>0.17282561644154637</v>
+        <v>0.47149234071678614</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175">
-        <v>149</v>
+        <v>280</v>
       </c>
       <c r="B175">
-        <v>12500</v>
+        <v>12499.9999999999</v>
       </c>
       <c r="C175">
-        <v>5551.4163804337404</v>
+        <v>6040.54772374206</v>
       </c>
       <c r="D175">
-        <v>0.66189991417512317</v>
+        <v>0.46857224518626106</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176">
-        <v>300</v>
+        <v>114</v>
       </c>
       <c r="B176">
         <v>12500</v>
       </c>
       <c r="C176">
-        <v>5558.27473664433</v>
+        <v>5532.4381523688298</v>
       </c>
       <c r="D176">
-        <v>0.36899862927412252</v>
+        <v>0.46656216868526079</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177">
-        <v>50</v>
+        <v>122</v>
       </c>
       <c r="B177">
         <v>12500</v>
       </c>
       <c r="C177">
-        <v>5570.9189147516199</v>
+        <v>4821.9616083298497</v>
       </c>
       <c r="D177">
-        <v>0.73308358728921819</v>
+        <v>0.46238339873891077</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178">
-        <v>282</v>
+        <v>131</v>
       </c>
       <c r="B178">
         <v>12499.9999999999</v>
       </c>
       <c r="C178">
-        <v>5580.8224155623902</v>
+        <v>4622.0006240730099</v>
       </c>
       <c r="D178">
-        <v>0.24864296572212563</v>
+        <v>0.45610716816987062</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="B179">
-        <v>12500</v>
+        <v>12499.9999999999</v>
       </c>
       <c r="C179">
-        <v>5592.2328818114802</v>
+        <v>4775.9084488022199</v>
       </c>
       <c r="D179">
-        <v>0.41297550760442936</v>
+        <v>0.45316489696703288</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180">
-        <v>264</v>
+        <v>179</v>
       </c>
       <c r="B180">
-        <v>12500</v>
+        <v>12499.9999999999</v>
       </c>
       <c r="C180">
-        <v>5602.8693406232296</v>
+        <v>6484.6925261639299</v>
       </c>
       <c r="D180">
-        <v>0.69845865091639836</v>
+        <v>0.44951246700512582</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181">
-        <v>147</v>
+        <v>253</v>
       </c>
       <c r="B181">
         <v>12499.9999999999</v>
       </c>
       <c r="C181">
-        <v>5618.3501866351098</v>
+        <v>7464.01641907668</v>
       </c>
       <c r="D181">
-        <v>0.50222941653016806</v>
+        <v>0.44835521498264586</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182">
-        <v>186</v>
+        <v>68</v>
       </c>
       <c r="B182">
         <v>12499.9999999999</v>
       </c>
       <c r="C182">
-        <v>5623.0598654294399</v>
+        <v>4891.6428826314896</v>
       </c>
       <c r="D182">
-        <v>6.8662195080744004E-2</v>
+        <v>0.44497077181073119</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="B183">
         <v>12500</v>
       </c>
       <c r="C183">
-        <v>5643.82742872781</v>
+        <v>4235.6831324585</v>
       </c>
       <c r="D183">
-        <v>0.52023560542614333</v>
+        <v>0.44394925726728729</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184">
-        <v>110</v>
+        <v>176</v>
       </c>
       <c r="B184">
-        <v>12499.9999999999</v>
+        <v>12500</v>
       </c>
       <c r="C184">
-        <v>5647.5371384308901</v>
+        <v>6317.8795263636603</v>
       </c>
       <c r="D184">
-        <v>0.67384397315264122</v>
+        <v>0.44329025729703531</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185">
-        <v>148</v>
+        <v>109</v>
       </c>
       <c r="B185">
         <v>12500</v>
       </c>
       <c r="C185">
-        <v>5665.45354611127</v>
+        <v>3967.6911119886599</v>
       </c>
       <c r="D185">
-        <v>0.51660500710025392</v>
+        <v>0.44220871661135541</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B186">
         <v>12499.9999999999</v>
       </c>
       <c r="C186">
-        <v>5667.4191416637595</v>
+        <v>3858.86537880068</v>
       </c>
       <c r="D186">
-        <v>0.14497879596877083</v>
+        <v>0.44074209025316124</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="B187">
-        <v>12500</v>
+        <v>12499.9999999999</v>
       </c>
       <c r="C187">
-        <v>5668.49427976473</v>
+        <v>8374.1315805394806</v>
       </c>
       <c r="D187">
-        <v>8.4507484293881552E-2</v>
+        <v>0.43963642884404008</v>
       </c>
     </row>
     <row r="188" spans="1:4">
-      <c r="A188" s="1">
-        <v>304</v>
-      </c>
-      <c r="B188" s="1">
-        <v>12499.9999999999</v>
-      </c>
-      <c r="C188" s="1">
-        <v>5701.0432590562104</v>
-      </c>
-      <c r="D188" s="1">
-        <v>5.0838199803280859E-2</v>
+      <c r="A188">
+        <v>254</v>
+      </c>
+      <c r="B188">
+        <v>12499.9999999999</v>
+      </c>
+      <c r="C188">
+        <v>8151.4653234214202</v>
+      </c>
+      <c r="D188">
+        <v>0.43748732801070178</v>
       </c>
     </row>
     <row r="189" spans="1:4">
-      <c r="A189" s="2">
-        <v>57</v>
-      </c>
-      <c r="B189" s="2">
-        <v>12500</v>
-      </c>
-      <c r="C189" s="2">
-        <v>5708.8054177123904</v>
-      </c>
-      <c r="D189" s="2">
-        <v>0.96193466305396058</v>
+      <c r="A189">
+        <v>43</v>
+      </c>
+      <c r="B189">
+        <v>12499.9999999999</v>
+      </c>
+      <c r="C189">
+        <v>10243.4688409511</v>
+      </c>
+      <c r="D189">
+        <v>0.43031391492514903</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190">
-        <v>290</v>
+        <v>2</v>
       </c>
       <c r="B190">
-        <v>12499.9999999999</v>
+        <v>12500</v>
       </c>
       <c r="C190">
-        <v>5752.0121063732804</v>
+        <v>6094.8053206811901</v>
       </c>
       <c r="D190">
-        <v>0.3644382479924223</v>
+        <v>0.42978547300564296</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191">
-        <v>112</v>
+        <v>164</v>
       </c>
       <c r="B191">
         <v>12500</v>
       </c>
       <c r="C191">
-        <v>5760.7343562534597</v>
+        <v>5107.60370368851</v>
       </c>
       <c r="D191">
-        <v>0.6749478023234583</v>
+        <v>0.42921274870543036</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="B192">
         <v>12500</v>
       </c>
       <c r="C192">
-        <v>5771.1620879291804</v>
+        <v>5492.6457443444397</v>
       </c>
       <c r="D192">
-        <v>0.57712011302377852</v>
+        <v>0.42682434645239697</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193">
-        <v>56</v>
+        <v>261</v>
       </c>
       <c r="B193">
-        <v>12499.9999999999</v>
+        <v>12500</v>
       </c>
       <c r="C193">
-        <v>5774.4991636390196</v>
+        <v>7194.87261259144</v>
       </c>
       <c r="D193">
-        <v>0.49338915791033533</v>
+        <v>0.42325312727206421</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194">
-        <v>288</v>
+        <v>0</v>
       </c>
       <c r="B194">
-        <v>12500</v>
+        <v>12499.9999999999</v>
       </c>
       <c r="C194">
-        <v>5776.6207060679799</v>
+        <v>7699.45960704563</v>
       </c>
       <c r="D194">
-        <v>0.21969544452176815</v>
+        <v>0.41474098775307022</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="B195">
         <v>12500</v>
       </c>
       <c r="C195">
-        <v>5804.5874620916802</v>
+        <v>5592.2328818114802</v>
       </c>
       <c r="D195">
-        <v>0.52665737987067796</v>
+        <v>0.41297550760442936</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="B196">
-        <v>12499.9999999999</v>
+        <v>12500</v>
       </c>
       <c r="C196">
-        <v>5821.9642016416301</v>
+        <v>3508.54895344324</v>
       </c>
       <c r="D196">
-        <v>0.83782576120319707</v>
+        <v>0.41003160828130503</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197">
-        <v>140</v>
+        <v>274</v>
       </c>
       <c r="B197">
-        <v>12499.9999999999</v>
+        <v>12500</v>
       </c>
       <c r="C197">
-        <v>5835.1486618946901</v>
+        <v>6160.7331857647796</v>
       </c>
       <c r="D197">
-        <v>0.80944043366974261</v>
+        <v>0.40823438066603057</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B198">
-        <v>12499.9999999999</v>
+        <v>12500</v>
       </c>
       <c r="C198">
-        <v>5861.98798981257</v>
+        <v>5050.9268455731699</v>
       </c>
       <c r="D198">
-        <v>0.65294979156912736</v>
+        <v>0.40805123466249604</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199">
-        <v>173</v>
+        <v>216</v>
       </c>
       <c r="B199">
-        <v>12500</v>
+        <v>12499.9999999999</v>
       </c>
       <c r="C199">
-        <v>5886.5177111007497</v>
+        <v>4949.3142902946402</v>
       </c>
       <c r="D199">
-        <v>0.72850255922154528</v>
+        <v>0.40659048363777373</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200">
-        <v>177</v>
+        <v>295</v>
       </c>
       <c r="B200">
-        <v>12500</v>
+        <v>12499.9999999999</v>
       </c>
       <c r="C200">
-        <v>5896.6346152300002</v>
+        <v>5157.6659546661103</v>
       </c>
       <c r="D200">
-        <v>0.15424491014804453</v>
+        <v>0.39489616302578912</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201">
-        <v>124</v>
+        <v>31</v>
       </c>
       <c r="B201">
         <v>12500</v>
       </c>
       <c r="C201">
-        <v>5903.3145960846596</v>
+        <v>7402.4712244994998</v>
       </c>
       <c r="D201">
-        <v>0.59655410276769516</v>
+        <v>0.38696478453645655</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202">
-        <v>126</v>
+        <v>252</v>
       </c>
       <c r="B202">
         <v>12499.9999999999</v>
       </c>
       <c r="C202">
-        <v>5927.0894223383002</v>
+        <v>8322.7376067122696</v>
       </c>
       <c r="D202">
-        <v>0.26659440315948457</v>
+        <v>0.3846884757788408</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B203">
         <v>12499.9999999999</v>
       </c>
       <c r="C203">
-        <v>5938.3229846046297</v>
+        <v>5992.78659700762</v>
       </c>
       <c r="D203">
-        <v>0.12874734905999086</v>
+        <v>0.37999956776805666</v>
       </c>
     </row>
     <row r="204" spans="1:4">
-      <c r="A204" s="1">
-        <v>45</v>
-      </c>
-      <c r="B204" s="1">
-        <v>12500</v>
-      </c>
-      <c r="C204" s="1">
-        <v>5990.7530524547601</v>
-      </c>
-      <c r="D204" s="1">
-        <v>4.6777590477974806E-2</v>
+      <c r="A204">
+        <v>191</v>
+      </c>
+      <c r="B204">
+        <v>12499.9999999999</v>
+      </c>
+      <c r="C204">
+        <v>7199.0756169776396</v>
+      </c>
+      <c r="D204">
+        <v>0.37981698765787941</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c r="B205">
-        <v>12499.9999999999</v>
+        <v>12500</v>
       </c>
       <c r="C205">
-        <v>5992.78659700762</v>
+        <v>5371.0151289863497</v>
       </c>
       <c r="D205">
-        <v>0.37999956776805666</v>
+        <v>0.37234991448987076</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206">
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="B206">
         <v>12499.9999999999</v>
       </c>
       <c r="C206">
-        <v>6025.1144091464903</v>
+        <v>6522.9225583505804</v>
       </c>
       <c r="D206">
-        <v>0.53140348658474301</v>
+        <v>0.36953385784878745</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207">
-        <v>280</v>
+        <v>232</v>
       </c>
       <c r="B207">
         <v>12499.9999999999</v>
       </c>
       <c r="C207">
-        <v>6040.54772374206</v>
+        <v>4375.9359228411504</v>
       </c>
       <c r="D207">
-        <v>0.46857224518626106</v>
+        <v>0.36924138300832565</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="B208">
         <v>12500</v>
       </c>
       <c r="C208">
-        <v>6064.6712019227098</v>
+        <v>5558.27473664433</v>
       </c>
       <c r="D208">
-        <v>0.47740177372079573</v>
+        <v>0.36899862927412252</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209">
-        <v>162</v>
+        <v>49</v>
       </c>
       <c r="B209">
         <v>12500</v>
       </c>
       <c r="C209">
-        <v>6065.2524011507803</v>
+        <v>6371.0354470956299</v>
       </c>
       <c r="D209">
-        <v>0.19544583748605937</v>
+        <v>0.36742638671757499</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210">
-        <v>174</v>
+        <v>94</v>
       </c>
       <c r="B210">
         <v>12500</v>
       </c>
       <c r="C210">
-        <v>6068.0760330619296</v>
+        <v>3293.46674650874</v>
       </c>
       <c r="D210">
-        <v>0.22049987481411826</v>
+        <v>0.36608434244210841</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211">
-        <v>285</v>
+        <v>55</v>
       </c>
       <c r="B211">
         <v>12500</v>
       </c>
       <c r="C211">
-        <v>6088.4324614610096</v>
+        <v>6126.3372431960097</v>
       </c>
       <c r="D211">
-        <v>0.71786844546685435</v>
+        <v>0.36523964166241241</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="B212">
-        <v>12500</v>
+        <v>12499.9999999999</v>
       </c>
       <c r="C212">
-        <v>6094.8053206811901</v>
+        <v>4103.1210979366497</v>
       </c>
       <c r="D212">
-        <v>0.42978547300564296</v>
+        <v>0.36453256914758148</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213">
-        <v>64</v>
+        <v>290</v>
       </c>
       <c r="B213">
-        <v>12500</v>
+        <v>12499.9999999999</v>
       </c>
       <c r="C213">
-        <v>6117.3984267510104</v>
+        <v>5752.0121063732804</v>
       </c>
       <c r="D213">
-        <v>0.15536282104270638</v>
+        <v>0.3644382479924223</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214">
-        <v>55</v>
+        <v>222</v>
       </c>
       <c r="B214">
-        <v>12500</v>
+        <v>12499.9999999999</v>
       </c>
       <c r="C214">
-        <v>6126.3372431960097</v>
+        <v>4336.1264958240199</v>
       </c>
       <c r="D214">
-        <v>0.36523964166241241</v>
+        <v>0.36388380853900926</v>
       </c>
     </row>
     <row r="215" spans="1:4">
-      <c r="A215" s="2">
-        <v>291</v>
-      </c>
-      <c r="B215" s="2">
-        <v>12500</v>
-      </c>
-      <c r="C215" s="2">
-        <v>6145.8604934311497</v>
-      </c>
-      <c r="D215" s="2">
-        <v>0.96669634792858472</v>
+      <c r="A215">
+        <v>307</v>
+      </c>
+      <c r="B215">
+        <v>12499.9999999999</v>
+      </c>
+      <c r="C215">
+        <v>6737.1393690002697</v>
+      </c>
+      <c r="D215">
+        <v>0.35955644010668919</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216">
-        <v>274</v>
+        <v>208</v>
       </c>
       <c r="B216">
         <v>12500</v>
       </c>
       <c r="C216">
-        <v>6160.7331857647796</v>
+        <v>3334.7626805405098</v>
       </c>
       <c r="D216">
-        <v>0.40823438066603057</v>
+        <v>0.35713607040919548</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="B217">
-        <v>12499.9999999999</v>
+        <v>12500</v>
       </c>
       <c r="C217">
-        <v>6168.2689161107</v>
+        <v>8383.1980949297504</v>
       </c>
       <c r="D217">
-        <v>0.55825587037809909</v>
+        <v>0.34609633245340465</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218">
-        <v>270</v>
+        <v>192</v>
       </c>
       <c r="B218">
-        <v>12500</v>
+        <v>12499.9999999999</v>
       </c>
       <c r="C218">
-        <v>6177.4639914612098</v>
+        <v>8492.3529901245893</v>
       </c>
       <c r="D218">
-        <v>0.63882006611305031</v>
+        <v>0.32772448382738006</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="B219">
         <v>12500</v>
       </c>
       <c r="C219">
-        <v>6178.3581550136796</v>
+        <v>4995.7925369320201</v>
       </c>
       <c r="D219">
-        <v>0.74163061736588998</v>
+        <v>0.30264143714621028</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="B220">
         <v>12500</v>
       </c>
       <c r="C220">
-        <v>6192.2205218524596</v>
+        <v>3948.2055194376499</v>
       </c>
       <c r="D220">
-        <v>0.63994558757708631</v>
+        <v>0.29969632135660629</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221">
-        <v>175</v>
+        <v>90</v>
       </c>
       <c r="B221">
         <v>12500</v>
       </c>
       <c r="C221">
-        <v>6209.2704770617802</v>
+        <v>3580.2519422590299</v>
       </c>
       <c r="D221">
-        <v>0.70052901558167369</v>
+        <v>0.29775923135871063</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="B222">
-        <v>12500</v>
+        <v>12499.9999999999</v>
       </c>
       <c r="C222">
-        <v>6222.0363032240202</v>
+        <v>6234.8375226452599</v>
       </c>
       <c r="D222">
-        <v>0.47659753241310721</v>
+        <v>0.29204712546907152</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223">
-        <v>30</v>
+        <v>289</v>
       </c>
       <c r="B223">
-        <v>12499.9999999999</v>
+        <v>12500</v>
       </c>
       <c r="C223">
-        <v>6226.6405202693704</v>
+        <v>7068.2358150435603</v>
       </c>
       <c r="D223">
-        <v>0.63131670320333078</v>
+        <v>0.29195077186428564</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224">
-        <v>292</v>
+        <v>150</v>
       </c>
       <c r="B224">
         <v>12499.9999999999</v>
       </c>
       <c r="C224">
-        <v>6234.8375226452599</v>
+        <v>5214.5508098407799</v>
       </c>
       <c r="D224">
-        <v>0.29204712546907152</v>
+        <v>0.28530862103255128</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="B225">
         <v>12500</v>
       </c>
       <c r="C225">
-        <v>6241.0030055191601</v>
+        <v>6309.7522023167003</v>
       </c>
       <c r="D225">
-        <v>0.78265600445629591</v>
+        <v>0.28347938045496834</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226">
-        <v>27</v>
+        <v>241</v>
       </c>
       <c r="B226">
-        <v>12500</v>
+        <v>12499.9999999999</v>
       </c>
       <c r="C226">
-        <v>6270.8215957877401</v>
+        <v>4859.6836463378704</v>
       </c>
       <c r="D226">
-        <v>0.79528053733000004</v>
+        <v>0.27789618986130427</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B227">
-        <v>12500</v>
+        <v>12499.9999999999</v>
       </c>
       <c r="C227">
-        <v>6309.7522023167003</v>
+        <v>4757.2495640586003</v>
       </c>
       <c r="D227">
-        <v>0.28347938045496834</v>
+        <v>0.26672739761653974</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228">
-        <v>176</v>
+        <v>126</v>
       </c>
       <c r="B228">
-        <v>12500</v>
+        <v>12499.9999999999</v>
       </c>
       <c r="C228">
-        <v>6317.8795263636603</v>
+        <v>5927.0894223383002</v>
       </c>
       <c r="D228">
-        <v>0.44329025729703531</v>
+        <v>0.26659440315948457</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229">
-        <v>298</v>
+        <v>231</v>
       </c>
       <c r="B229">
-        <v>12499.9999999999</v>
+        <v>12500</v>
       </c>
       <c r="C229">
-        <v>6324.9289153825102</v>
+        <v>5063.3538237648199</v>
       </c>
       <c r="D229">
-        <v>0.24566368528035143</v>
+        <v>0.25065619951024198</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230">
-        <v>273</v>
+        <v>16</v>
       </c>
       <c r="B230">
-        <v>12499.9999999999</v>
+        <v>12500</v>
       </c>
       <c r="C230">
-        <v>6350.9214496319801</v>
+        <v>12368.236351158799</v>
       </c>
       <c r="D230">
-        <v>0.49277281244331117</v>
+        <v>0.24885359912319382</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231">
-        <v>49</v>
+        <v>282</v>
       </c>
       <c r="B231">
-        <v>12500</v>
+        <v>12499.9999999999</v>
       </c>
       <c r="C231">
-        <v>6371.0354470956299</v>
+        <v>5580.8224155623902</v>
       </c>
       <c r="D231">
-        <v>0.36742638671757499</v>
+        <v>0.24864296572212563</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232">
-        <v>215</v>
+        <v>298</v>
       </c>
       <c r="B232">
-        <v>12500</v>
+        <v>12499.9999999999</v>
       </c>
       <c r="C232">
-        <v>6394.11439057999</v>
+        <v>6324.9289153825102</v>
       </c>
       <c r="D232">
-        <v>0.1809701346176632</v>
+        <v>0.24566368528035143</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233">
-        <v>250</v>
+        <v>14</v>
       </c>
       <c r="B233">
         <v>12499.9999999999</v>
       </c>
       <c r="C233">
-        <v>6417.6300997485896</v>
+        <v>4526.4265948552902</v>
       </c>
       <c r="D233">
-        <v>0.16592547284313053</v>
+        <v>0.24453157224013267</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="B234">
-        <v>12500</v>
+        <v>12499.9999999999</v>
       </c>
       <c r="C234">
-        <v>6422.16887590647</v>
+        <v>4412.25580220757</v>
       </c>
       <c r="D234">
-        <v>0.64287660472620012</v>
+        <v>0.24301843310240534</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235">
-        <v>305</v>
+        <v>58</v>
       </c>
       <c r="B235">
         <v>12499.9999999999</v>
       </c>
       <c r="C235">
-        <v>6428.6960222176504</v>
+        <v>7475.2573177497998</v>
       </c>
       <c r="D235">
-        <v>0.54685936072419894</v>
+        <v>0.2394902025417126</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236">
-        <v>246</v>
+        <v>9</v>
       </c>
       <c r="B236">
         <v>12499.9999999999</v>
       </c>
       <c r="C236">
-        <v>6433.4050709985404</v>
+        <v>4783.6422452146999</v>
       </c>
       <c r="D236">
-        <v>0.92869757675979159</v>
+        <v>0.23344295792178249</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237">
-        <v>301</v>
+        <v>28</v>
       </c>
       <c r="B237">
-        <v>12499.9999999999</v>
+        <v>12500</v>
       </c>
       <c r="C237">
-        <v>6442.7006349405801</v>
+        <v>6758.8326157356296</v>
       </c>
       <c r="D237">
-        <v>0.91719579405472529</v>
+        <v>0.23256723630061027</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238">
-        <v>277</v>
+        <v>51</v>
       </c>
       <c r="B238">
         <v>12499.9999999999</v>
       </c>
       <c r="C238">
-        <v>6456.3264911304304</v>
+        <v>4685.7243652773404</v>
       </c>
       <c r="D238">
-        <v>0.83674916353318829</v>
+        <v>0.22882663377775747</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B239">
-        <v>12499.9999999999</v>
+        <v>12500</v>
       </c>
       <c r="C239">
-        <v>6484.6925261639299</v>
+        <v>6068.0760330619296</v>
       </c>
       <c r="D239">
-        <v>0.44951246700512582</v>
+        <v>0.22049987481411826</v>
       </c>
     </row>
     <row r="240" spans="1:4">
-      <c r="A240" s="1">
-        <v>29</v>
-      </c>
-      <c r="B240" s="1">
-        <v>12500</v>
-      </c>
-      <c r="C240" s="1">
-        <v>6489.7942902613404</v>
-      </c>
-      <c r="D240" s="1">
-        <v>1.6978369243365155E-2</v>
+      <c r="A240">
+        <v>134</v>
+      </c>
+      <c r="B240">
+        <v>12500</v>
+      </c>
+      <c r="C240">
+        <v>5055.6180425049097</v>
+      </c>
+      <c r="D240">
+        <v>0.22003477522816117</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="B241">
         <v>12500</v>
       </c>
       <c r="C241">
-        <v>6507.89860966592</v>
+        <v>5776.6207060679799</v>
       </c>
       <c r="D241">
-        <v>0.62069506646099881</v>
+        <v>0.21969544452176815</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242">
-        <v>265</v>
+        <v>70</v>
       </c>
       <c r="B242">
-        <v>12499.9999999999</v>
+        <v>12500</v>
       </c>
       <c r="C242">
-        <v>6522.9225583505804</v>
+        <v>7685.8345789004197</v>
       </c>
       <c r="D242">
-        <v>0.36953385784878745</v>
+        <v>0.21437206953619281</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243">
-        <v>180</v>
+        <v>41</v>
       </c>
       <c r="B243">
-        <v>12499.9999999999</v>
+        <v>12500</v>
       </c>
       <c r="C243">
-        <v>6538.4626705135997</v>
+        <v>10257.1564997323</v>
       </c>
       <c r="D243">
-        <v>0.74358237450942866</v>
+        <v>0.20631352257201674</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244">
-        <v>170</v>
+        <v>236</v>
       </c>
       <c r="B244">
         <v>12499.9999999999</v>
       </c>
       <c r="C244">
-        <v>6585.1925379194499</v>
+        <v>3538.191597518</v>
       </c>
       <c r="D244">
-        <v>0.95371786619723609</v>
+        <v>0.20573753789611104</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245">
-        <v>263</v>
+        <v>189</v>
       </c>
       <c r="B245">
-        <v>12499.9999999999</v>
+        <v>12500</v>
       </c>
       <c r="C245">
-        <v>6588.1778797196803</v>
+        <v>8228.4919898755907</v>
       </c>
       <c r="D245">
-        <v>0.68923366086050886</v>
+        <v>0.20535178220912487</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B246">
         <v>12499.9999999999</v>
       </c>
       <c r="C246">
-        <v>6591.0977879031198</v>
+        <v>5056.9750001127804</v>
       </c>
       <c r="D246">
-        <v>0.47767469973064614</v>
+        <v>0.20263897239580864</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="B247">
         <v>12499.9999999999</v>
       </c>
       <c r="C247">
-        <v>6597.1325215033603</v>
+        <v>5360.4810967639996</v>
       </c>
       <c r="D247">
-        <v>0.88781481635898674</v>
+        <v>0.19818370777294103</v>
       </c>
     </row>
     <row r="248" spans="1:4">
-      <c r="A248" s="2">
-        <v>267</v>
-      </c>
-      <c r="B248" s="2">
-        <v>12499.9999999999</v>
-      </c>
-      <c r="C248" s="2">
-        <v>6613.09503231906</v>
-      </c>
-      <c r="D248" s="2">
-        <v>0.97762701683528286</v>
+      <c r="A248">
+        <v>302</v>
+      </c>
+      <c r="B248">
+        <v>12499.9999999999</v>
+      </c>
+      <c r="C248">
+        <v>5281.4153259694203</v>
+      </c>
+      <c r="D248">
+        <v>0.19673638086584155</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249">
-        <v>251</v>
+        <v>162</v>
       </c>
       <c r="B249">
-        <v>12499.9999999999</v>
+        <v>12500</v>
       </c>
       <c r="C249">
-        <v>6635.5429420911696</v>
+        <v>6065.2524011507803</v>
       </c>
       <c r="D249">
-        <v>0.16213537470530615</v>
+        <v>0.19544583748605937</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250">
-        <v>260</v>
+        <v>44</v>
       </c>
       <c r="B250">
         <v>12500</v>
       </c>
       <c r="C250">
-        <v>6642.2478043269703</v>
+        <v>5056.5820432285</v>
       </c>
       <c r="D250">
-        <v>0.78402067212316684</v>
+        <v>0.19235807587369069</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251">
-        <v>307</v>
+        <v>119</v>
       </c>
       <c r="B251">
-        <v>12499.9999999999</v>
+        <v>12500</v>
       </c>
       <c r="C251">
-        <v>6737.1393690002697</v>
+        <v>4301.5619051476997</v>
       </c>
       <c r="D251">
-        <v>0.35955644010668919</v>
+        <v>0.18995642184024464</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="B252">
-        <v>12500</v>
+        <v>12499.9999999999</v>
       </c>
       <c r="C252">
-        <v>6758.8326157356296</v>
+        <v>4452.9535072643603</v>
       </c>
       <c r="D252">
-        <v>0.23256723630061027</v>
+        <v>0.18315122541431517</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253">
-        <v>20</v>
+        <v>215</v>
       </c>
       <c r="B253">
         <v>12500</v>
       </c>
       <c r="C253">
-        <v>6794.6160177391403</v>
+        <v>6394.11439057999</v>
       </c>
       <c r="D253">
-        <v>0.61818068820648253</v>
+        <v>0.1809701346176632</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254">
-        <v>306</v>
+        <v>155</v>
       </c>
       <c r="B254">
-        <v>12499.9999999999</v>
+        <v>12500</v>
       </c>
       <c r="C254">
-        <v>6797.7893628683296</v>
+        <v>9365.3014291850595</v>
       </c>
       <c r="D254">
-        <v>0.14912414585982536</v>
+        <v>0.18005528511660274</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B255">
         <v>12500</v>
       </c>
       <c r="C255">
-        <v>6892.5147240146498</v>
+        <v>5532.7603649107396</v>
       </c>
       <c r="D255">
-        <v>0.14043535400711493</v>
+        <v>0.17282561644154637</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256">
-        <v>10</v>
+        <v>255</v>
       </c>
       <c r="B256">
         <v>12500</v>
       </c>
       <c r="C256">
-        <v>6930.7447370338004</v>
+        <v>8208.6771878536492</v>
       </c>
       <c r="D256">
-        <v>0.63291928993857927</v>
+        <v>0.17276102773476865</v>
       </c>
     </row>
     <row r="257" spans="1:4">
-      <c r="A257" s="1">
-        <v>272</v>
-      </c>
-      <c r="B257" s="1">
-        <v>12500</v>
-      </c>
-      <c r="C257" s="1">
-        <v>6962.5063941485296</v>
-      </c>
-      <c r="D257" s="1">
-        <v>2.2871833683935749E-2</v>
+      <c r="A257">
+        <v>37</v>
+      </c>
+      <c r="B257">
+        <v>12500</v>
+      </c>
+      <c r="C257">
+        <v>4354.6747316843102</v>
+      </c>
+      <c r="D257">
+        <v>0.17261918919655039</v>
       </c>
     </row>
     <row r="258" spans="1:4">
-      <c r="A258" s="1">
-        <v>187</v>
-      </c>
-      <c r="B258" s="1">
-        <v>12499.9999999999</v>
-      </c>
-      <c r="C258" s="1">
-        <v>6974.9987342137902</v>
-      </c>
-      <c r="D258" s="1">
-        <v>4.7228310610688329E-2</v>
+      <c r="A258">
+        <v>171</v>
+      </c>
+      <c r="B258">
+        <v>12499.9999999999</v>
+      </c>
+      <c r="C258">
+        <v>7632.2905204955496</v>
+      </c>
+      <c r="D258">
+        <v>0.1708727304418034</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259">
-        <v>289</v>
+        <v>250</v>
       </c>
       <c r="B259">
-        <v>12500</v>
+        <v>12499.9999999999</v>
       </c>
       <c r="C259">
-        <v>7068.2358150435603</v>
+        <v>6417.6300997485896</v>
       </c>
       <c r="D259">
-        <v>0.29195077186428564</v>
+        <v>0.16592547284313053</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260">
-        <v>157</v>
+        <v>251</v>
       </c>
       <c r="B260">
         <v>12499.9999999999</v>
       </c>
       <c r="C260">
-        <v>7147.1511629221905</v>
+        <v>6635.5429420911696</v>
       </c>
       <c r="D260">
-        <v>0.86246269496278971</v>
+        <v>0.16213537470530615</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261">
-        <v>194</v>
+        <v>89</v>
       </c>
       <c r="B261">
         <v>12499.9999999999</v>
       </c>
       <c r="C261">
-        <v>7166.4022951554198</v>
+        <v>3853.86595514483</v>
       </c>
       <c r="D261">
-        <v>0.70853791582897885</v>
+        <v>0.16042992995924843</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262">
-        <v>3</v>
+        <v>138</v>
       </c>
       <c r="B262">
-        <v>12500</v>
+        <v>12499.9999999999</v>
       </c>
       <c r="C262">
-        <v>7177.6321868260802</v>
+        <v>4915.6785047651001</v>
       </c>
       <c r="D262">
-        <v>0.56988835735966226</v>
+        <v>0.15999975130474009</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263">
-        <v>261</v>
+        <v>33</v>
       </c>
       <c r="B263">
         <v>12500</v>
       </c>
       <c r="C263">
-        <v>7194.87261259144</v>
+        <v>5286.7974886178699</v>
       </c>
       <c r="D263">
-        <v>0.42325312727206421</v>
+        <v>0.15955762015246011</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264">
-        <v>191</v>
+        <v>64</v>
       </c>
       <c r="B264">
-        <v>12499.9999999999</v>
+        <v>12500</v>
       </c>
       <c r="C264">
-        <v>7199.0756169776396</v>
+        <v>6117.3984267510104</v>
       </c>
       <c r="D264">
-        <v>0.37981698765787941</v>
+        <v>0.15536282104270638</v>
       </c>
     </row>
     <row r="265" spans="1:4">
-      <c r="A265" s="1">
-        <v>71</v>
-      </c>
-      <c r="B265" s="1">
-        <v>12499.9999999999</v>
-      </c>
-      <c r="C265" s="1">
-        <v>7205.2171593465</v>
-      </c>
-      <c r="D265" s="1">
-        <v>2.1091369971779739E-2</v>
+      <c r="A265">
+        <v>177</v>
+      </c>
+      <c r="B265">
+        <v>12500</v>
+      </c>
+      <c r="C265">
+        <v>5896.6346152300002</v>
+      </c>
+      <c r="D265">
+        <v>0.15424491014804453</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266">
-        <v>249</v>
+        <v>296</v>
       </c>
       <c r="B266">
         <v>12499.9999999999</v>
       </c>
       <c r="C266">
-        <v>7212.8464644209298</v>
+        <v>5431.3614416073497</v>
       </c>
       <c r="D266">
-        <v>0.65115039324782387</v>
+        <v>0.15311256149257457</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267">
-        <v>39</v>
+        <v>188</v>
       </c>
       <c r="B267">
         <v>12500</v>
       </c>
       <c r="C267">
-        <v>7242.8422540203901</v>
+        <v>8237.1608233128809</v>
       </c>
       <c r="D267">
-        <v>0.61757757868621033</v>
+        <v>0.15211182938589329</v>
       </c>
     </row>
     <row r="268" spans="1:4">
-      <c r="A268" s="2">
-        <v>152</v>
-      </c>
-      <c r="B268" s="2">
-        <v>12499.9999999999</v>
-      </c>
-      <c r="C268" s="2">
-        <v>7243.6222131527102</v>
-      </c>
-      <c r="D268" s="2">
-        <v>0.99006601806041761</v>
+      <c r="A268">
+        <v>224</v>
+      </c>
+      <c r="B268">
+        <v>12499.9999999999</v>
+      </c>
+      <c r="C268">
+        <v>4698.9322280224696</v>
+      </c>
+      <c r="D268">
+        <v>0.15210619940799763</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269">
-        <v>19</v>
+        <v>306</v>
       </c>
       <c r="B269">
-        <v>12500</v>
+        <v>12499.9999999999</v>
       </c>
       <c r="C269">
-        <v>7268.1225114479403</v>
+        <v>6797.7893628683296</v>
       </c>
       <c r="D269">
-        <v>0.12306193047932112</v>
+        <v>0.14912414585982536</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="B270">
-        <v>12500</v>
+        <v>12499.9999999999</v>
       </c>
       <c r="C270">
-        <v>7369.1336350294396</v>
+        <v>5667.4191416637595</v>
       </c>
       <c r="D270">
-        <v>0.84251851575761327</v>
+        <v>0.14497879596877083</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271">
-        <v>31</v>
+        <v>214</v>
       </c>
       <c r="B271">
         <v>12500</v>
       </c>
       <c r="C271">
-        <v>7402.4712244994998</v>
+        <v>6892.5147240146498</v>
       </c>
       <c r="D271">
-        <v>0.38696478453645655</v>
+        <v>0.14043535400711493</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="B272">
-        <v>12500</v>
+        <v>12499.9999999999</v>
       </c>
       <c r="C272">
-        <v>7439.8032357182801</v>
+        <v>4256.3160145183701</v>
       </c>
       <c r="D272">
-        <v>0.84941154992279766</v>
+        <v>0.13903574244403805</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="B273">
-        <v>12499.9999999999</v>
+        <v>12500</v>
       </c>
       <c r="C273">
-        <v>7464.01641907668</v>
+        <v>3597.5592449023002</v>
       </c>
       <c r="D273">
-        <v>0.44835521498264586</v>
+        <v>0.13096069852574987</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274">
-        <v>58</v>
+        <v>197</v>
       </c>
       <c r="B274">
-        <v>12499.9999999999</v>
+        <v>12500</v>
       </c>
       <c r="C274">
-        <v>7475.2573177497998</v>
+        <v>5087.1238950395</v>
       </c>
       <c r="D274">
-        <v>0.2394902025417126</v>
+        <v>0.12946659761246482</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="B275">
-        <v>12500</v>
+        <v>12499.9999999999</v>
       </c>
       <c r="C275">
-        <v>7604.6730051694303</v>
+        <v>5938.3229846046297</v>
       </c>
       <c r="D275">
-        <v>0.68772431299452064</v>
+        <v>0.12874734905999086</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="B276">
-        <v>12499.9999999999</v>
+        <v>12500</v>
       </c>
       <c r="C276">
-        <v>7632.2905204955496</v>
+        <v>5258.3828203021203</v>
       </c>
       <c r="D276">
-        <v>0.1708727304418034</v>
+        <v>0.12814679897195069</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277">
-        <v>70</v>
+        <v>309</v>
       </c>
       <c r="B277">
         <v>12500</v>
       </c>
       <c r="C277">
-        <v>7685.8345789004197</v>
+        <v>9670.8950407157008</v>
       </c>
       <c r="D277">
-        <v>0.21437206953619281</v>
+        <v>0.12653162202948354</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B278">
-        <v>12499.9999999999</v>
+        <v>12500</v>
       </c>
       <c r="C278">
-        <v>7699.45960704563</v>
+        <v>7268.1225114479403</v>
       </c>
       <c r="D278">
-        <v>0.41474098775307022</v>
+        <v>0.12306193047932112</v>
       </c>
     </row>
     <row r="279" spans="1:4">
-      <c r="A279" s="1">
-        <v>269</v>
-      </c>
-      <c r="B279" s="1">
-        <v>12500</v>
-      </c>
-      <c r="C279" s="1">
-        <v>7714.6588928033998</v>
-      </c>
-      <c r="D279" s="1">
-        <v>4.4818356995026787E-2</v>
+      <c r="A279">
+        <v>102</v>
+      </c>
+      <c r="B279">
+        <v>12500</v>
+      </c>
+      <c r="C279">
+        <v>3872.8987725452398</v>
+      </c>
+      <c r="D279">
+        <v>0.12264885385968716</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B280">
         <v>12499.9999999999</v>
       </c>
       <c r="C280">
-        <v>7836.22712444425</v>
+        <v>9100.0477366204304</v>
       </c>
       <c r="D280">
-        <v>0.85128257931114981</v>
+        <v>0.11548294640094481</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281">
-        <v>25</v>
+        <v>136</v>
       </c>
       <c r="B281">
         <v>12500</v>
       </c>
       <c r="C281">
-        <v>7960.1158865295001</v>
+        <v>4306.0643222828003</v>
       </c>
       <c r="D281">
-        <v>0.71199824911870779</v>
+        <v>0.11494911335725555</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282">
-        <v>11</v>
+        <v>271</v>
       </c>
       <c r="B282">
-        <v>12499.9999999999</v>
+        <v>12500</v>
       </c>
       <c r="C282">
-        <v>7974.3095925804</v>
+        <v>5366.03511131905</v>
       </c>
       <c r="D282">
-        <v>0.50321345139208096</v>
+        <v>0.11357598434684957</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283">
-        <v>247</v>
+        <v>66</v>
       </c>
       <c r="B283">
-        <v>12499.9999999999</v>
+        <v>12500</v>
       </c>
       <c r="C283">
-        <v>7979.4136307194703</v>
+        <v>4859.0286432076</v>
       </c>
       <c r="D283">
-        <v>0.71863643935307653</v>
+        <v>0.10734057196064528</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284">
-        <v>299</v>
+        <v>106</v>
       </c>
       <c r="B284">
         <v>12500</v>
       </c>
       <c r="C284">
-        <v>8040.7097766875504</v>
+        <v>4512.6908390611998</v>
       </c>
       <c r="D284">
-        <v>0.57141841119189685</v>
+        <v>9.7472175203266231E-2</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="B285">
         <v>12499.9999999999</v>
       </c>
       <c r="C285">
-        <v>8083.4133595415497</v>
+        <v>5178.2653772567</v>
       </c>
       <c r="D285">
-        <v>0.57203290772054483</v>
+        <v>9.2631833365493299E-2</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B286">
-        <v>12499.9999999999</v>
+        <v>12500</v>
       </c>
       <c r="C286">
-        <v>8085.5973637404004</v>
+        <v>5405.2283462771702</v>
       </c>
       <c r="D286">
-        <v>0.92315150508944932</v>
+        <v>9.1920752422166463E-2</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287">
-        <v>254</v>
+        <v>163</v>
       </c>
       <c r="B287">
-        <v>12499.9999999999</v>
+        <v>12500</v>
       </c>
       <c r="C287">
-        <v>8151.4653234214202</v>
+        <v>5668.49427976473</v>
       </c>
       <c r="D287">
-        <v>0.43748732801070178</v>
+        <v>8.4507484293881552E-2</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288">
-        <v>255</v>
+        <v>116</v>
       </c>
       <c r="B288">
         <v>12500</v>
       </c>
       <c r="C288">
-        <v>8208.6771878536492</v>
+        <v>5299.9987645808196</v>
       </c>
       <c r="D288">
-        <v>0.17276102773476865</v>
+        <v>8.0149669616742303E-2</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289">
-        <v>189</v>
+        <v>108</v>
       </c>
       <c r="B289">
         <v>12500</v>
       </c>
       <c r="C289">
-        <v>8228.4919898755907</v>
+        <v>4017.1218371354298</v>
       </c>
       <c r="D289">
-        <v>0.20535178220912487</v>
+        <v>7.051289864572452E-2</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290">
-        <v>188</v>
+        <v>234</v>
       </c>
       <c r="B290">
         <v>12500</v>
       </c>
       <c r="C290">
-        <v>8237.1608233128809</v>
+        <v>4918.9482636869097</v>
       </c>
       <c r="D290">
-        <v>0.15211182938589329</v>
+        <v>7.0023740592017325E-2</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291">
-        <v>252</v>
+        <v>186</v>
       </c>
       <c r="B291">
         <v>12499.9999999999</v>
       </c>
       <c r="C291">
-        <v>8322.7376067122696</v>
+        <v>5623.0598654294399</v>
       </c>
       <c r="D291">
-        <v>0.3846884757788408</v>
+        <v>6.8662195080744004E-2</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="B292">
-        <v>12499.9999999999</v>
+        <v>12500</v>
       </c>
       <c r="C292">
-        <v>8340.2443129559706</v>
+        <v>4595.6986480935302</v>
       </c>
       <c r="D292">
-        <v>0.66850751800706687</v>
+        <v>6.7748204985058735E-2</v>
       </c>
     </row>
     <row r="293" spans="1:4">
-      <c r="A293" s="2">
-        <v>256</v>
-      </c>
-      <c r="B293" s="2">
-        <v>12499.9999999999</v>
-      </c>
-      <c r="C293" s="2">
-        <v>8365.6199658099995</v>
-      </c>
-      <c r="D293" s="2">
-        <v>0.96251526720226832</v>
+      <c r="A293">
+        <v>118</v>
+      </c>
+      <c r="B293">
+        <v>12499.9999999999</v>
+      </c>
+      <c r="C293">
+        <v>3081.5818644927199</v>
+      </c>
+      <c r="D293">
+        <v>6.4192204016154997E-2</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294">
-        <v>153</v>
+        <v>36</v>
       </c>
       <c r="B294">
-        <v>12499.9999999999</v>
+        <v>12500</v>
       </c>
       <c r="C294">
-        <v>8374.1315805394806</v>
+        <v>5089.2463008018904</v>
       </c>
       <c r="D294">
-        <v>0.43963642884404008</v>
+        <v>5.9310669234720281E-2</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295">
-        <v>257</v>
+        <v>123</v>
       </c>
       <c r="B295">
         <v>12500</v>
       </c>
       <c r="C295">
-        <v>8383.1980949297504</v>
+        <v>5320.7125379521804</v>
       </c>
       <c r="D295">
-        <v>0.34609633245340465</v>
+        <v>5.6615686202293292E-2</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296">
-        <v>192</v>
+        <v>304</v>
       </c>
       <c r="B296">
         <v>12499.9999999999</v>
       </c>
       <c r="C296">
-        <v>8492.3529901245893</v>
+        <v>5701.0432590562104</v>
       </c>
       <c r="D296">
-        <v>0.32772448382738006</v>
+        <v>5.0838199803280859E-2</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297">
-        <v>156</v>
+        <v>100</v>
       </c>
       <c r="B297">
-        <v>12499.9999999999</v>
+        <v>12500</v>
       </c>
       <c r="C297">
-        <v>8502.1202429652003</v>
+        <v>3639.86101568805</v>
       </c>
       <c r="D297">
-        <v>0.50760486320116094</v>
+        <v>4.909959750937698E-2</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298">
-        <v>15</v>
+        <v>187</v>
       </c>
       <c r="B298">
         <v>12499.9999999999</v>
       </c>
       <c r="C298">
-        <v>8517.7513782192509</v>
+        <v>6974.9987342137902</v>
       </c>
       <c r="D298">
-        <v>0.7933260876504804</v>
+        <v>4.7228310610688329E-2</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="B299">
-        <v>12499.9999999999</v>
+        <v>12500</v>
       </c>
       <c r="C299">
-        <v>8707.58247195068</v>
+        <v>5990.7530524547601</v>
       </c>
       <c r="D299">
-        <v>0.56725280560776759</v>
+        <v>4.6777590477974806E-2</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300">
-        <v>248</v>
+        <v>117</v>
       </c>
       <c r="B300">
-        <v>12499.9999999999</v>
+        <v>12500</v>
       </c>
       <c r="C300">
-        <v>8774.5111525592092</v>
+        <v>4125.0909046736397</v>
       </c>
       <c r="D300">
-        <v>0.49721808450174787</v>
+        <v>4.6279097591911955E-2</v>
       </c>
     </row>
     <row r="301" spans="1:4">
-      <c r="A301" s="2">
-        <v>154</v>
-      </c>
-      <c r="B301" s="2">
-        <v>12500</v>
-      </c>
-      <c r="C301" s="2">
-        <v>8856.3327388495909</v>
-      </c>
-      <c r="D301" s="2">
-        <v>0.97035197476836399</v>
+      <c r="A301">
+        <v>269</v>
+      </c>
+      <c r="B301">
+        <v>12500</v>
+      </c>
+      <c r="C301">
+        <v>7714.6588928033998</v>
+      </c>
+      <c r="D301">
+        <v>4.4818356995026787E-2</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="B302">
-        <v>12499.9999999999</v>
+        <v>12500</v>
       </c>
       <c r="C302">
-        <v>8923.9778100489602</v>
+        <v>3821.0177103565702</v>
       </c>
       <c r="D302">
-        <v>0.87197512187514614</v>
+        <v>3.9497541152067162E-2</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303">
-        <v>190</v>
+        <v>6</v>
       </c>
       <c r="B303">
         <v>12499.9999999999</v>
       </c>
       <c r="C303">
-        <v>9100.0477366204304</v>
+        <v>4758.0831804933696</v>
       </c>
       <c r="D303">
-        <v>0.11548294640094481</v>
+        <v>3.2125477547702674E-2</v>
       </c>
     </row>
     <row r="304" spans="1:4">
       <c r="A304">
-        <v>275</v>
+        <v>52</v>
       </c>
       <c r="B304">
         <v>12500</v>
       </c>
       <c r="C304">
-        <v>9258.6920249122195</v>
+        <v>5181.8930178974897</v>
       </c>
       <c r="D304">
-        <v>0.9195725371988257</v>
+        <v>3.1430208007530824E-2</v>
       </c>
     </row>
     <row r="305" spans="1:4">
       <c r="A305">
-        <v>35</v>
+        <v>272</v>
       </c>
       <c r="B305">
-        <v>12499.9999999999</v>
+        <v>12500</v>
       </c>
       <c r="C305">
-        <v>9329.3938233688696</v>
+        <v>6962.5063941485296</v>
       </c>
       <c r="D305">
-        <v>0.64508835274981768</v>
+        <v>2.2871833683935749E-2</v>
       </c>
     </row>
     <row r="306" spans="1:4">
       <c r="A306">
-        <v>155</v>
+        <v>71</v>
       </c>
       <c r="B306">
-        <v>12500</v>
+        <v>12499.9999999999</v>
       </c>
       <c r="C306">
-        <v>9365.3014291850595</v>
+        <v>7205.2171593465</v>
       </c>
       <c r="D306">
-        <v>0.18005528511660274</v>
+        <v>2.1091369971779739E-2</v>
       </c>
     </row>
     <row r="307" spans="1:4">
       <c r="A307">
-        <v>309</v>
+        <v>167</v>
       </c>
       <c r="B307">
-        <v>12500</v>
+        <v>12499.9999999999</v>
       </c>
       <c r="C307">
-        <v>9670.8950407157008</v>
+        <v>4783.0587466226098</v>
       </c>
       <c r="D307">
-        <v>0.12653162202948354</v>
+        <v>2.0166933617337013E-2</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308">
-        <v>308</v>
+        <v>281</v>
       </c>
       <c r="B308">
         <v>12500</v>
       </c>
       <c r="C308">
-        <v>10184.653880612201</v>
+        <v>5171.1639985191696</v>
       </c>
       <c r="D308">
-        <v>0.49510682339693657</v>
+        <v>1.8039978752762531E-2</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B309">
-        <v>12499.9999999999</v>
+        <v>12500</v>
       </c>
       <c r="C309">
-        <v>10243.4688409511</v>
+        <v>6489.7942902613404</v>
       </c>
       <c r="D309">
-        <v>0.43031391492514903</v>
+        <v>1.6978369243365155E-2</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310">
-        <v>41</v>
+        <v>160</v>
       </c>
       <c r="B310">
         <v>12500</v>
       </c>
       <c r="C310">
-        <v>10257.1564997323</v>
+        <v>4349.0933785777597</v>
       </c>
       <c r="D310">
-        <v>0.20631352257201674</v>
+        <v>4.7063266572561213E-3</v>
       </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="B311">
-        <v>12500</v>
+        <v>12499.9999999999</v>
       </c>
       <c r="C311">
-        <v>12368.236351158799</v>
+        <v>4617.45424817816</v>
       </c>
       <c r="D311">
-        <v>0.24885359912319382</v>
+        <v>1.3432452505383052E-3</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D1" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D311">
-      <sortCondition ref="C1:C311"/>
+      <sortCondition descending="1" ref="D1:D311"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34ED1BE4-A70C-B84D-A6F6-5A7BA12E06D2}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3">
+        <v>72</v>
+      </c>
+      <c r="B2" s="3">
+        <v>12500</v>
+      </c>
+      <c r="C2" s="3">
+        <v>4936.5614800000003</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.99800482999999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="3">
+        <v>38</v>
+      </c>
+      <c r="B3" s="3">
+        <v>12500</v>
+      </c>
+      <c r="C3" s="3">
+        <v>3084.5822400000002</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.99588549000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3">
+        <v>152</v>
+      </c>
+      <c r="B4" s="3">
+        <v>12500</v>
+      </c>
+      <c r="C4" s="3">
+        <v>7243.6222100000005</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.99006601999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3">
+        <v>184</v>
+      </c>
+      <c r="B5" s="3">
+        <v>12500</v>
+      </c>
+      <c r="C5" s="3">
+        <v>4255.5432499999997</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.98505639</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3">
+        <v>185</v>
+      </c>
+      <c r="B6" s="3">
+        <v>12500</v>
+      </c>
+      <c r="C6" s="3">
+        <v>5435.6652800000002</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.98036584000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="3">
+        <v>267</v>
+      </c>
+      <c r="B7" s="3">
+        <v>12500</v>
+      </c>
+      <c r="C7" s="3">
+        <v>6613.0950300000004</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.97762702000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="3">
+        <v>227</v>
+      </c>
+      <c r="B8" s="3">
+        <v>12500</v>
+      </c>
+      <c r="C8" s="3">
+        <v>5406.3466799999997</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.97566408999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="3">
+        <v>88</v>
+      </c>
+      <c r="B9" s="3">
+        <v>12500</v>
+      </c>
+      <c r="C9" s="3">
+        <v>4814.41309</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.97083752999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="3">
+        <v>154</v>
+      </c>
+      <c r="B10" s="3">
+        <v>12500</v>
+      </c>
+      <c r="C10" s="3">
+        <v>8856.3327399999998</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.97035196999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="3">
+        <v>168</v>
+      </c>
+      <c r="B11" s="3">
+        <v>12500</v>
+      </c>
+      <c r="C11" s="3">
+        <v>4888.6342599999998</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.96905149999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="3">
+        <v>135</v>
+      </c>
+      <c r="B12" s="3">
+        <v>12500</v>
+      </c>
+      <c r="C12" s="3">
+        <v>5236.3469500000001</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.96815141999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="3">
+        <v>210</v>
+      </c>
+      <c r="B13" s="3">
+        <v>12500</v>
+      </c>
+      <c r="C13" s="3">
+        <v>4380.1526999999996</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.96759055000000005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="3">
+        <v>159</v>
+      </c>
+      <c r="B14" s="3">
+        <v>12500</v>
+      </c>
+      <c r="C14" s="3">
+        <v>4532.4216999999999</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.96748297999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="3">
+        <v>203</v>
+      </c>
+      <c r="B15" s="3">
+        <v>12500</v>
+      </c>
+      <c r="C15" s="3">
+        <v>5116.5576099999998</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.96690721000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="3">
+        <v>291</v>
+      </c>
+      <c r="B16" s="3">
+        <v>12500</v>
+      </c>
+      <c r="C16" s="3">
+        <v>6145.86049</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.96669634999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="3">
+        <v>161</v>
+      </c>
+      <c r="B17" s="3">
+        <v>12500</v>
+      </c>
+      <c r="C17" s="3">
+        <v>4326.2620200000001</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.96533796999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="3">
+        <v>256</v>
+      </c>
+      <c r="B18" s="3">
+        <v>12500</v>
+      </c>
+      <c r="C18" s="3">
+        <v>8365.6199699999997</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.96251527000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="3">
+        <v>57</v>
+      </c>
+      <c r="B19" s="3">
+        <v>12500</v>
+      </c>
+      <c r="C19" s="3">
+        <v>5708.8054199999997</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.96193466000000005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="3">
+        <v>229</v>
+      </c>
+      <c r="B20" s="3">
+        <v>12500</v>
+      </c>
+      <c r="C20" s="3">
+        <v>4820.74719</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.96015163000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="3">
+        <v>225</v>
+      </c>
+      <c r="B21" s="3">
+        <v>12500</v>
+      </c>
+      <c r="C21" s="3">
+        <v>4864.9089000000004</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.95760444</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>